--- a/Input/censusadjustedPEP2020_ExtILadj.xlsx
+++ b/Input/censusadjustedPEP2020_ExtILadj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmapil-my.sharepoint.com/personal/amcadams_cmap_illinois_gov/Documents/Documents/Demographic Model Project/ExtIL_adjustment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amcadams\OneDrive - Chicago Metropolitan Agency for Planning\Documents\Demographic Model Project\ExtIL_adjustment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1004,7 +1004,7 @@
   <dimension ref="A1:H757"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1049,7 +1049,7 @@
         <v>9</v>
       </c>
       <c r="D2">
-        <v>1378.6651056517501</v>
+        <v>1379</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -1075,7 +1075,7 @@
         <v>9</v>
       </c>
       <c r="D3">
-        <v>1624.9273939233699</v>
+        <v>1625</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -1101,7 +1101,7 @@
         <v>9</v>
       </c>
       <c r="D4">
-        <v>1936.79234095586</v>
+        <v>1937</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -1127,7 +1127,7 @@
         <v>9</v>
       </c>
       <c r="D5">
-        <v>2001.3857280435</v>
+        <v>2001</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -1153,7 +1153,7 @@
         <v>9</v>
       </c>
       <c r="D6">
-        <v>1586.5750703400799</v>
+        <v>1587</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -1179,7 +1179,7 @@
         <v>9</v>
       </c>
       <c r="D7">
-        <v>1465.46246955076</v>
+        <v>1465</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -1205,7 +1205,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>1465.46246955076</v>
+        <v>1465</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -1231,7 +1231,7 @@
         <v>9</v>
       </c>
       <c r="D9">
-        <v>1629.97375228959</v>
+        <v>1630</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
@@ -1257,7 +1257,7 @@
         <v>9</v>
       </c>
       <c r="D10">
-        <v>1674.3817059123401</v>
+        <v>1674</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
@@ -1283,7 +1283,7 @@
         <v>9</v>
       </c>
       <c r="D11">
-        <v>1825.77245689899</v>
+        <v>1826</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
@@ -1309,7 +1309,7 @@
         <v>9</v>
       </c>
       <c r="D12">
-        <v>1866.14332382876</v>
+        <v>1866</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
@@ -1335,7 +1335,7 @@
         <v>9</v>
       </c>
       <c r="D13">
-        <v>1856.0506070963199</v>
+        <v>1856</v>
       </c>
       <c r="E13" t="s">
         <v>13</v>
@@ -1361,7 +1361,7 @@
         <v>9</v>
       </c>
       <c r="D14">
-        <v>1691.5393243574899</v>
+        <v>1692</v>
       </c>
       <c r="E14" t="s">
         <v>13</v>
@@ -1387,7 +1387,7 @@
         <v>9</v>
       </c>
       <c r="D15">
-        <v>1395.8227240968999</v>
+        <v>1396</v>
       </c>
       <c r="E15" t="s">
         <v>13</v>
@@ -1413,7 +1413,7 @@
         <v>9</v>
       </c>
       <c r="D16">
-        <v>1237.36707139754</v>
+        <v>1237</v>
       </c>
       <c r="E16" t="s">
         <v>13</v>
@@ -1439,7 +1439,7 @@
         <v>9</v>
       </c>
       <c r="D17">
-        <v>945.68755782993696</v>
+        <v>946</v>
       </c>
       <c r="E17" t="s">
         <v>13</v>
@@ -1465,7 +1465,7 @@
         <v>9</v>
       </c>
       <c r="D18">
-        <v>558.12723530411404</v>
+        <v>558</v>
       </c>
       <c r="E18" t="s">
         <v>13</v>
@@ -1491,7 +1491,7 @@
         <v>9</v>
       </c>
       <c r="D19">
-        <v>594.46101554091001</v>
+        <v>594</v>
       </c>
       <c r="E19" t="s">
         <v>13</v>
@@ -1517,7 +1517,7 @@
         <v>9</v>
       </c>
       <c r="D20">
-        <v>152725.734676252</v>
+        <v>152726</v>
       </c>
       <c r="E20" t="s">
         <v>13</v>
@@ -1543,7 +1543,7 @@
         <v>9</v>
       </c>
       <c r="D21">
-        <v>153592.06641011601</v>
+        <v>153592</v>
       </c>
       <c r="E21" t="s">
         <v>13</v>
@@ -1569,7 +1569,7 @@
         <v>9</v>
       </c>
       <c r="D22">
-        <v>155956.194031066</v>
+        <v>155956</v>
       </c>
       <c r="E22" t="s">
         <v>13</v>
@@ -1595,7 +1595,7 @@
         <v>9</v>
       </c>
       <c r="D23">
-        <v>155233.04911171601</v>
+        <v>155233</v>
       </c>
       <c r="E23" t="s">
         <v>13</v>
@@ -1621,7 +1621,7 @@
         <v>9</v>
       </c>
       <c r="D24">
-        <v>167922.07919226401</v>
+        <v>167922</v>
       </c>
       <c r="E24" t="s">
         <v>13</v>
@@ -1647,7 +1647,7 @@
         <v>9</v>
       </c>
       <c r="D25">
-        <v>220464.42927250799</v>
+        <v>220464</v>
       </c>
       <c r="E25" t="s">
         <v>13</v>
@@ -1673,7 +1673,7 @@
         <v>9</v>
       </c>
       <c r="D26">
-        <v>209249.50229678699</v>
+        <v>209250</v>
       </c>
       <c r="E26" t="s">
         <v>13</v>
@@ -1699,7 +1699,7 @@
         <v>9</v>
       </c>
       <c r="D27">
-        <v>190976.18645015301</v>
+        <v>190976</v>
       </c>
       <c r="E27" t="s">
         <v>13</v>
@@ -1725,7 +1725,7 @@
         <v>9</v>
       </c>
       <c r="D28">
-        <v>171489.38810352699</v>
+        <v>171489</v>
       </c>
       <c r="E28" t="s">
         <v>13</v>
@@ -1751,7 +1751,7 @@
         <v>9</v>
       </c>
       <c r="D29">
-        <v>166411.92185356599</v>
+        <v>166412</v>
       </c>
       <c r="E29" t="s">
         <v>13</v>
@@ -1777,7 +1777,7 @@
         <v>9</v>
       </c>
       <c r="D30">
-        <v>163566.72774068499</v>
+        <v>163567</v>
       </c>
       <c r="E30" t="s">
         <v>13</v>
@@ -1803,7 +1803,7 @@
         <v>9</v>
       </c>
       <c r="D31">
-        <v>169893.73072450701</v>
+        <v>169894</v>
       </c>
       <c r="E31" t="s">
         <v>13</v>
@@ -1829,7 +1829,7 @@
         <v>9</v>
       </c>
       <c r="D32">
-        <v>167930.320160006</v>
+        <v>167930</v>
       </c>
       <c r="E32" t="s">
         <v>13</v>
@@ -1855,7 +1855,7 @@
         <v>9</v>
       </c>
       <c r="D33">
-        <v>142284.428547299</v>
+        <v>142284</v>
       </c>
       <c r="E33" t="s">
         <v>13</v>
@@ -1881,7 +1881,7 @@
         <v>9</v>
       </c>
       <c r="D34">
-        <v>114733.843265252</v>
+        <v>114734</v>
       </c>
       <c r="E34" t="s">
         <v>13</v>
@@ -1907,7 +1907,7 @@
         <v>9</v>
       </c>
       <c r="D35">
-        <v>81534.074596150997</v>
+        <v>81534</v>
       </c>
       <c r="E35" t="s">
         <v>13</v>
@@ -1933,7 +1933,7 @@
         <v>9</v>
       </c>
       <c r="D36">
-        <v>57866.0152414931</v>
+        <v>57866</v>
       </c>
       <c r="E36" t="s">
         <v>13</v>
@@ -1959,7 +1959,7 @@
         <v>9</v>
       </c>
       <c r="D37">
-        <v>71591.347015581807</v>
+        <v>71591</v>
       </c>
       <c r="E37" t="s">
         <v>13</v>
@@ -1985,7 +1985,7 @@
         <v>9</v>
       </c>
       <c r="D38">
-        <v>2711.2815176193099</v>
+        <v>2711</v>
       </c>
       <c r="E38" t="s">
         <v>13</v>
@@ -2011,7 +2011,7 @@
         <v>9</v>
       </c>
       <c r="D39">
-        <v>2986.4363251004802</v>
+        <v>2986</v>
       </c>
       <c r="E39" t="s">
         <v>13</v>
@@ -2037,7 +2037,7 @@
         <v>9</v>
       </c>
       <c r="D40">
-        <v>2992.18869041367</v>
+        <v>2992</v>
       </c>
       <c r="E40" t="s">
         <v>13</v>
@@ -2063,7 +2063,7 @@
         <v>9</v>
       </c>
       <c r="D41">
-        <v>4341.1183563579398</v>
+        <v>4341</v>
       </c>
       <c r="E41" t="s">
         <v>13</v>
@@ -2089,7 +2089,7 @@
         <v>9</v>
       </c>
       <c r="D42">
-        <v>7086.9140658564202</v>
+        <v>7087</v>
       </c>
       <c r="E42" t="s">
         <v>13</v>
@@ -2115,7 +2115,7 @@
         <v>9</v>
       </c>
       <c r="D43">
-        <v>3600.9806860601602</v>
+        <v>3601</v>
       </c>
       <c r="E43" t="s">
         <v>13</v>
@@ -2141,7 +2141,7 @@
         <v>9</v>
       </c>
       <c r="D44">
-        <v>2976.8490495784899</v>
+        <v>2977</v>
       </c>
       <c r="E44" t="s">
         <v>13</v>
@@ -2167,7 +2167,7 @@
         <v>9</v>
       </c>
       <c r="D45">
-        <v>3018.0743343230502</v>
+        <v>3018</v>
       </c>
       <c r="E45" t="s">
         <v>13</v>
@@ -2193,7 +2193,7 @@
         <v>9</v>
       </c>
       <c r="D46">
-        <v>2700.7355145451202</v>
+        <v>2701</v>
       </c>
       <c r="E46" t="s">
         <v>13</v>
@@ -2219,7 +2219,7 @@
         <v>9</v>
       </c>
       <c r="D47">
-        <v>2569.38983989383</v>
+        <v>2569</v>
       </c>
       <c r="E47" t="s">
         <v>13</v>
@@ -2245,7 +2245,7 @@
         <v>9</v>
       </c>
       <c r="D48">
-        <v>2622.1198552647902</v>
+        <v>2622</v>
       </c>
       <c r="E48" t="s">
         <v>13</v>
@@ -2271,7 +2271,7 @@
         <v>9</v>
       </c>
       <c r="D49">
-        <v>2953.8395883257099</v>
+        <v>2954</v>
       </c>
       <c r="E49" t="s">
         <v>13</v>
@@ -2297,7 +2297,7 @@
         <v>9</v>
       </c>
       <c r="D50">
-        <v>2721.8275206935</v>
+        <v>2722</v>
       </c>
       <c r="E50" t="s">
         <v>13</v>
@@ -2323,7 +2323,7 @@
         <v>9</v>
       </c>
       <c r="D51">
-        <v>2304.7810354868502</v>
+        <v>2305</v>
       </c>
       <c r="E51" t="s">
         <v>13</v>
@@ -2349,7 +2349,7 @@
         <v>9</v>
       </c>
       <c r="D52">
-        <v>1798.5728879256801</v>
+        <v>1799</v>
       </c>
       <c r="E52" t="s">
         <v>13</v>
@@ -2375,7 +2375,7 @@
         <v>9</v>
       </c>
       <c r="D53">
-        <v>1292.36474036451</v>
+        <v>1292</v>
       </c>
       <c r="E53" t="s">
         <v>13</v>
@@ -2401,7 +2401,7 @@
         <v>9</v>
       </c>
       <c r="D54">
-        <v>907.91499193263496</v>
+        <v>908</v>
       </c>
       <c r="E54" t="s">
         <v>13</v>
@@ -2427,7 +2427,7 @@
         <v>9</v>
       </c>
       <c r="D55">
-        <v>1037.3432114795201</v>
+        <v>1037</v>
       </c>
       <c r="E55" t="s">
         <v>13</v>
@@ -2453,7 +2453,7 @@
         <v>9</v>
       </c>
       <c r="D56">
-        <v>26347.166389124799</v>
+        <v>26347</v>
       </c>
       <c r="E56" t="s">
         <v>13</v>
@@ -2479,7 +2479,7 @@
         <v>9</v>
       </c>
       <c r="D57">
-        <v>27998.0498411431</v>
+        <v>27998</v>
       </c>
       <c r="E57" t="s">
         <v>13</v>
@@ -2505,7 +2505,7 @@
         <v>9</v>
       </c>
       <c r="D58">
-        <v>29112.167868380999</v>
+        <v>29112</v>
       </c>
       <c r="E58" t="s">
         <v>13</v>
@@ -2531,7 +2531,7 @@
         <v>9</v>
       </c>
       <c r="D59">
-        <v>29586.023167761701</v>
+        <v>29586</v>
       </c>
       <c r="E59" t="s">
         <v>13</v>
@@ -2557,7 +2557,7 @@
         <v>9</v>
       </c>
       <c r="D60">
-        <v>27479.548646317398</v>
+        <v>27480</v>
       </c>
       <c r="E60" t="s">
         <v>13</v>
@@ -2583,7 +2583,7 @@
         <v>9</v>
       </c>
       <c r="D61">
-        <v>28415.083091775799</v>
+        <v>28415</v>
       </c>
       <c r="E61" t="s">
         <v>13</v>
@@ -2609,7 +2609,7 @@
         <v>9</v>
       </c>
       <c r="D62">
-        <v>29014.758641955799</v>
+        <v>29015</v>
       </c>
       <c r="E62" t="s">
         <v>13</v>
@@ -2635,7 +2635,7 @@
         <v>9</v>
       </c>
       <c r="D63">
-        <v>31479.415006400999</v>
+        <v>31479</v>
       </c>
       <c r="E63" t="s">
         <v>13</v>
@@ -2661,7 +2661,7 @@
         <v>9</v>
       </c>
       <c r="D64">
-        <v>29918.838024714401</v>
+        <v>29919</v>
       </c>
       <c r="E64" t="s">
         <v>13</v>
@@ -2687,7 +2687,7 @@
         <v>9</v>
       </c>
       <c r="D65">
-        <v>29832.590272150501</v>
+        <v>29833</v>
       </c>
       <c r="E65" t="s">
         <v>13</v>
@@ -2713,7 +2713,7 @@
         <v>9</v>
       </c>
       <c r="D66">
-        <v>31701.629804183402</v>
+        <v>31702</v>
       </c>
       <c r="E66" t="s">
         <v>13</v>
@@ -2739,7 +2739,7 @@
         <v>9</v>
       </c>
       <c r="D67">
-        <v>34454.455130136397</v>
+        <v>34454</v>
       </c>
       <c r="E67" t="s">
         <v>13</v>
@@ -2765,7 +2765,7 @@
         <v>9</v>
       </c>
       <c r="D68">
-        <v>32904.024942869102</v>
+        <v>32904</v>
       </c>
       <c r="E68" t="s">
         <v>13</v>
@@ -2791,7 +2791,7 @@
         <v>9</v>
       </c>
       <c r="D69">
-        <v>26879.8730961375</v>
+        <v>26880</v>
       </c>
       <c r="E69" t="s">
         <v>13</v>
@@ -2817,7 +2817,7 @@
         <v>9</v>
       </c>
       <c r="D70">
-        <v>21430.029813537501</v>
+        <v>21430</v>
       </c>
       <c r="E70" t="s">
         <v>13</v>
@@ -2843,7 +2843,7 @@
         <v>9</v>
       </c>
       <c r="D71">
-        <v>14957.389653473299</v>
+        <v>14957</v>
       </c>
       <c r="E71" t="s">
         <v>13</v>
@@ -2869,7 +2869,7 @@
         <v>9</v>
       </c>
       <c r="D72">
-        <v>9863.6988549904709</v>
+        <v>9864</v>
       </c>
       <c r="E72" t="s">
         <v>13</v>
@@ -2895,7 +2895,7 @@
         <v>9</v>
       </c>
       <c r="D73">
-        <v>12658.126038062501</v>
+        <v>12658</v>
       </c>
       <c r="E73" t="s">
         <v>13</v>
@@ -2921,7 +2921,7 @@
         <v>9</v>
       </c>
       <c r="D74">
-        <v>1558.80606785175</v>
+        <v>1559</v>
       </c>
       <c r="E74" t="s">
         <v>13</v>
@@ -2947,7 +2947,7 @@
         <v>9</v>
       </c>
       <c r="D75">
-        <v>1719.4228093212801</v>
+        <v>1719</v>
       </c>
       <c r="E75" t="s">
         <v>13</v>
@@ -2973,7 +2973,7 @@
         <v>9</v>
       </c>
       <c r="D76">
-        <v>1907.838602199</v>
+        <v>1908</v>
       </c>
       <c r="E76" t="s">
         <v>13</v>
@@ -2999,7 +2999,7 @@
         <v>9</v>
       </c>
       <c r="D77">
-        <v>1721.4819983144801</v>
+        <v>1721</v>
       </c>
       <c r="E77" t="s">
         <v>13</v>
@@ -3025,7 +3025,7 @@
         <v>9</v>
       </c>
       <c r="D78">
-        <v>1486.7344530897799</v>
+        <v>1487</v>
       </c>
       <c r="E78" t="s">
         <v>13</v>
@@ -3051,7 +3051,7 @@
         <v>9</v>
       </c>
       <c r="D79">
-        <v>1581.4571467769399</v>
+        <v>1581</v>
       </c>
       <c r="E79" t="s">
         <v>13</v>
@@ -3077,7 +3077,7 @@
         <v>9</v>
       </c>
       <c r="D80">
-        <v>1673.0910569743</v>
+        <v>1673</v>
       </c>
       <c r="E80" t="s">
         <v>13</v>
@@ -3103,7 +3103,7 @@
         <v>9</v>
       </c>
       <c r="D81">
-        <v>1883.12833428061</v>
+        <v>1883</v>
       </c>
       <c r="E81" t="s">
         <v>13</v>
@@ -3129,7 +3129,7 @@
         <v>9</v>
       </c>
       <c r="D82">
-        <v>1782.22807361386</v>
+        <v>1782</v>
       </c>
       <c r="E82" t="s">
         <v>13</v>
@@ -3155,7 +3155,7 @@
         <v>9</v>
       </c>
       <c r="D83">
-        <v>1752.36983321247</v>
+        <v>1752</v>
       </c>
       <c r="E83" t="s">
         <v>13</v>
@@ -3181,7 +3181,7 @@
         <v>9</v>
       </c>
       <c r="D84">
-        <v>1719.4228093212801</v>
+        <v>1719</v>
       </c>
       <c r="E84" t="s">
         <v>13</v>
@@ -3207,7 +3207,7 @@
         <v>9</v>
       </c>
       <c r="D85">
-        <v>1742.07388824647</v>
+        <v>1742</v>
       </c>
       <c r="E85" t="s">
         <v>13</v>
@@ -3233,7 +3233,7 @@
         <v>9</v>
       </c>
       <c r="D86">
-        <v>1610.2857926817301</v>
+        <v>1610</v>
       </c>
       <c r="E86" t="s">
         <v>13</v>
@@ -3259,7 +3259,7 @@
         <v>9</v>
       </c>
       <c r="D87">
-        <v>1330.23608960664</v>
+        <v>1330</v>
       </c>
       <c r="E87" t="s">
         <v>13</v>
@@ -3285,7 +3285,7 @@
         <v>9</v>
       </c>
       <c r="D88">
-        <v>1077.98543793975</v>
+        <v>1078</v>
       </c>
       <c r="E88" t="s">
         <v>13</v>
@@ -3311,7 +3311,7 @@
         <v>9</v>
       </c>
       <c r="D89">
-        <v>782.49181741567497</v>
+        <v>782</v>
       </c>
       <c r="E89" t="s">
         <v>13</v>
@@ -3337,7 +3337,7 @@
         <v>9</v>
       </c>
       <c r="D90">
-        <v>507.59008682358899</v>
+        <v>508</v>
       </c>
       <c r="E90" t="s">
         <v>13</v>
@@ -3363,7 +3363,7 @@
         <v>9</v>
       </c>
       <c r="D91">
-        <v>578.63210708895895</v>
+        <v>579</v>
       </c>
       <c r="E91" t="s">
         <v>13</v>
@@ -3389,7 +3389,7 @@
         <v>9</v>
       </c>
       <c r="D92">
-        <v>15276.116825224801</v>
+        <v>15276</v>
       </c>
       <c r="E92" t="s">
         <v>13</v>
@@ -3415,7 +3415,7 @@
         <v>9</v>
       </c>
       <c r="D93">
-        <v>16696.4731466747</v>
+        <v>16696</v>
       </c>
       <c r="E93" t="s">
         <v>13</v>
@@ -3441,7 +3441,7 @@
         <v>9</v>
       </c>
       <c r="D94">
-        <v>18360.679972012498</v>
+        <v>18361</v>
       </c>
       <c r="E94" t="s">
         <v>13</v>
@@ -3467,7 +3467,7 @@
         <v>9</v>
       </c>
       <c r="D95">
-        <v>18520.980104050199</v>
+        <v>18521</v>
       </c>
       <c r="E95" t="s">
         <v>13</v>
@@ -3493,7 +3493,7 @@
         <v>9</v>
       </c>
       <c r="D96">
-        <v>16150.481181794499</v>
+        <v>16150</v>
       </c>
       <c r="E96" t="s">
         <v>13</v>
@@ -3519,7 +3519,7 @@
         <v>9</v>
       </c>
       <c r="D97">
-        <v>15224.626479782401</v>
+        <v>15225</v>
       </c>
       <c r="E97" t="s">
         <v>13</v>
@@ -3545,7 +3545,7 @@
         <v>9</v>
       </c>
       <c r="D98">
-        <v>15036.152385144</v>
+        <v>15036</v>
       </c>
       <c r="E98" t="s">
         <v>13</v>
@@ -3571,7 +3571,7 @@
         <v>9</v>
       </c>
       <c r="D99">
-        <v>16557.546365575301</v>
+        <v>16558</v>
       </c>
       <c r="E99" t="s">
         <v>13</v>
@@ -3597,7 +3597,7 @@
         <v>9</v>
       </c>
       <c r="D100">
-        <v>16939.352134610799</v>
+        <v>16939</v>
       </c>
       <c r="E100" t="s">
         <v>13</v>
@@ -3623,7 +3623,7 @@
         <v>9</v>
       </c>
       <c r="D101">
-        <v>17690.333965309001</v>
+        <v>17690</v>
       </c>
       <c r="E101" t="s">
         <v>13</v>
@@ -3649,7 +3649,7 @@
         <v>9</v>
       </c>
       <c r="D102">
-        <v>17510.6035142363</v>
+        <v>17511</v>
       </c>
       <c r="E102" t="s">
         <v>13</v>
@@ -3675,7 +3675,7 @@
         <v>9</v>
       </c>
       <c r="D103">
-        <v>17623.2993646387</v>
+        <v>17623</v>
       </c>
       <c r="E103" t="s">
         <v>13</v>
@@ -3701,7 +3701,7 @@
         <v>9</v>
       </c>
       <c r="D104">
-        <v>15790.048763697499</v>
+        <v>15790</v>
       </c>
       <c r="E104" t="s">
         <v>13</v>
@@ -3727,7 +3727,7 @@
         <v>9</v>
       </c>
       <c r="D105">
-        <v>13406.9201340691</v>
+        <v>13407</v>
       </c>
       <c r="E105" t="s">
         <v>13</v>
@@ -3753,7 +3753,7 @@
         <v>9</v>
       </c>
       <c r="D106">
-        <v>10805.200415298301</v>
+        <v>10805</v>
       </c>
       <c r="E106" t="s">
         <v>13</v>
@@ -3779,7 +3779,7 @@
         <v>9</v>
       </c>
       <c r="D107">
-        <v>7563.2516843281301</v>
+        <v>7563</v>
       </c>
       <c r="E107" t="s">
         <v>13</v>
@@ -3805,7 +3805,7 @@
         <v>9</v>
       </c>
       <c r="D108">
-        <v>4684.64991931024</v>
+        <v>4685</v>
       </c>
       <c r="E108" t="s">
         <v>13</v>
@@ -3831,7 +3831,7 @@
         <v>9</v>
       </c>
       <c r="D109">
-        <v>5384.1414045660204</v>
+        <v>5384</v>
       </c>
       <c r="E109" t="s">
         <v>13</v>
@@ -3857,7 +3857,7 @@
         <v>9</v>
       </c>
       <c r="D110">
-        <v>3090.9761970356399</v>
+        <v>3091</v>
       </c>
       <c r="E110" t="s">
         <v>13</v>
@@ -3883,7 +3883,7 @@
         <v>9</v>
       </c>
       <c r="D111">
-        <v>3060.3724723125201</v>
+        <v>3060</v>
       </c>
       <c r="E111" t="s">
         <v>13</v>
@@ -3909,7 +3909,7 @@
         <v>9</v>
       </c>
       <c r="D112">
-        <v>3502.64565540801</v>
+        <v>3503</v>
       </c>
       <c r="E112" t="s">
         <v>13</v>
@@ -3935,7 +3935,7 @@
         <v>9</v>
       </c>
       <c r="D113">
-        <v>4050.5510496446</v>
+        <v>4051</v>
       </c>
       <c r="E113" t="s">
         <v>13</v>
@@ -3961,7 +3961,7 @@
         <v>9</v>
       </c>
       <c r="D114">
-        <v>4014.0240233621598</v>
+        <v>4014</v>
       </c>
       <c r="E114" t="s">
         <v>13</v>
@@ -3987,7 +3987,7 @@
         <v>9</v>
       </c>
       <c r="D115">
-        <v>3407.8728304589699</v>
+        <v>3408</v>
       </c>
       <c r="E115" t="s">
         <v>13</v>
@@ -4013,7 +4013,7 @@
         <v>9</v>
       </c>
       <c r="D116">
-        <v>3113.6821863463501</v>
+        <v>3114</v>
       </c>
       <c r="E116" t="s">
         <v>13</v>
@@ -4039,7 +4039,7 @@
         <v>9</v>
       </c>
       <c r="D117">
-        <v>3182.78737120502</v>
+        <v>3183</v>
       </c>
       <c r="E117" t="s">
         <v>13</v>
@@ -4065,7 +4065,7 @@
         <v>9</v>
       </c>
       <c r="D118">
-        <v>3205.4933605157298</v>
+        <v>3205</v>
       </c>
       <c r="E118" t="s">
         <v>13</v>
@@ -4091,7 +4091,7 @@
         <v>9</v>
       </c>
       <c r="D119">
-        <v>3166.9919003801801</v>
+        <v>3167</v>
       </c>
       <c r="E119" t="s">
         <v>13</v>
@@ -4117,7 +4117,7 @@
         <v>9</v>
       </c>
       <c r="D120">
-        <v>3337.7804286737501</v>
+        <v>3338</v>
       </c>
       <c r="E120" t="s">
         <v>13</v>
@@ -4143,7 +4143,7 @@
         <v>9</v>
       </c>
       <c r="D121">
-        <v>3627.0349881536099</v>
+        <v>3627</v>
       </c>
       <c r="E121" t="s">
         <v>13</v>
@@ -4169,7 +4169,7 @@
         <v>9</v>
       </c>
       <c r="D122">
-        <v>3518.4411262328499</v>
+        <v>3518</v>
       </c>
       <c r="E122" t="s">
         <v>13</v>
@@ -4195,7 +4195,7 @@
         <v>9</v>
       </c>
       <c r="D123">
-        <v>3064.3213400187301</v>
+        <v>3064</v>
       </c>
       <c r="E123" t="s">
         <v>13</v>
@@ -4221,7 +4221,7 @@
         <v>9</v>
       </c>
       <c r="D124">
-        <v>2545.0452366521499</v>
+        <v>2545</v>
       </c>
       <c r="E124" t="s">
         <v>13</v>
@@ -4247,7 +4247,7 @@
         <v>9</v>
       </c>
       <c r="D125">
-        <v>1793.7731555457599</v>
+        <v>1794</v>
       </c>
       <c r="E125" t="s">
         <v>13</v>
@@ -4273,7 +4273,7 @@
         <v>9</v>
       </c>
       <c r="D126">
-        <v>1252.7782797950299</v>
+        <v>1253</v>
       </c>
       <c r="E126" t="s">
         <v>13</v>
@@ -4299,7 +4299,7 @@
         <v>9</v>
       </c>
       <c r="D127">
-        <v>1505.50581299245</v>
+        <v>1506</v>
       </c>
       <c r="E127" t="s">
         <v>13</v>
@@ -4325,7 +4325,7 @@
         <v>9</v>
       </c>
       <c r="D128">
-        <v>4125.7775219146697</v>
+        <v>4126</v>
       </c>
       <c r="E128" t="s">
         <v>13</v>
@@ -4351,7 +4351,7 @@
         <v>9</v>
       </c>
       <c r="D129">
-        <v>4998.30456408603</v>
+        <v>4998</v>
       </c>
       <c r="E129" t="s">
         <v>13</v>
@@ -4377,7 +4377,7 @@
         <v>9</v>
       </c>
       <c r="D130">
-        <v>5527.6916209950996</v>
+        <v>5528</v>
       </c>
       <c r="E130" t="s">
         <v>13</v>
@@ -4403,7 +4403,7 @@
         <v>9</v>
       </c>
       <c r="D131">
-        <v>4927.4496998725799</v>
+        <v>4927</v>
       </c>
       <c r="E131" t="s">
         <v>13</v>
@@ -4429,7 +4429,7 @@
         <v>9</v>
       </c>
       <c r="D132">
-        <v>3717.8559465143699</v>
+        <v>3718</v>
       </c>
       <c r="E132" t="s">
         <v>13</v>
@@ -4455,7 +4455,7 @@
         <v>9</v>
       </c>
       <c r="D133">
-        <v>3643.9644452632001</v>
+        <v>3644</v>
       </c>
       <c r="E133" t="s">
         <v>13</v>
@@ -4481,7 +4481,7 @@
         <v>9</v>
       </c>
       <c r="D134">
-        <v>4513.4548503968399</v>
+        <v>4513</v>
       </c>
       <c r="E134" t="s">
         <v>13</v>
@@ -4507,7 +4507,7 @@
         <v>9</v>
       </c>
       <c r="D135">
-        <v>5383.9574678763802</v>
+        <v>5384</v>
       </c>
       <c r="E135" t="s">
         <v>13</v>
@@ -4533,7 +4533,7 @@
         <v>9</v>
       </c>
       <c r="D136">
-        <v>5379.9086184927601</v>
+        <v>5380</v>
       </c>
       <c r="E136" t="s">
         <v>13</v>
@@ -4559,7 +4559,7 @@
         <v>9</v>
       </c>
       <c r="D137">
-        <v>5064.0983665699496</v>
+        <v>5064</v>
       </c>
       <c r="E137" t="s">
         <v>13</v>
@@ -4585,7 +4585,7 @@
         <v>9</v>
       </c>
       <c r="D138">
-        <v>4277.6093738006402</v>
+        <v>4278</v>
       </c>
       <c r="E138" t="s">
         <v>13</v>
@@ -4611,7 +4611,7 @@
         <v>9</v>
       </c>
       <c r="D139">
-        <v>3654.0865687222699</v>
+        <v>3654</v>
       </c>
       <c r="E139" t="s">
         <v>13</v>
@@ -4637,7 +4637,7 @@
         <v>9</v>
       </c>
       <c r="D140">
-        <v>3167.2124303412702</v>
+        <v>3167</v>
       </c>
       <c r="E140" t="s">
         <v>13</v>
@@ -4663,7 +4663,7 @@
         <v>9</v>
       </c>
       <c r="D141">
-        <v>2736.0099709851202</v>
+        <v>2736</v>
       </c>
       <c r="E141" t="s">
         <v>13</v>
@@ -4689,7 +4689,7 @@
         <v>9</v>
       </c>
       <c r="D142">
-        <v>2190.4275165415402</v>
+        <v>2190</v>
       </c>
       <c r="E142" t="s">
         <v>13</v>
@@ -4715,7 +4715,7 @@
         <v>9</v>
       </c>
       <c r="D143">
-        <v>1428.2316200739899</v>
+        <v>1428</v>
       </c>
       <c r="E143" t="s">
         <v>13</v>
@@ -4741,7 +4741,7 @@
         <v>9</v>
       </c>
       <c r="D144">
-        <v>825.96527425965996</v>
+        <v>826</v>
       </c>
       <c r="E144" t="s">
         <v>13</v>
@@ -4767,7 +4767,7 @@
         <v>9</v>
       </c>
       <c r="D145">
-        <v>918.07659773714602</v>
+        <v>918</v>
       </c>
       <c r="E145" t="s">
         <v>13</v>
@@ -4793,7 +4793,7 @@
         <v>49</v>
       </c>
       <c r="D146">
-        <v>4636.3755727528596</v>
+        <v>4636</v>
       </c>
       <c r="E146" t="s">
         <v>13</v>
@@ -4819,7 +4819,7 @@
         <v>49</v>
       </c>
       <c r="D147">
-        <v>4877.45913283154</v>
+        <v>4877</v>
       </c>
       <c r="E147" t="s">
         <v>13</v>
@@ -4845,7 +4845,7 @@
         <v>49</v>
       </c>
       <c r="D148">
-        <v>5522.0089814716603</v>
+        <v>5522</v>
       </c>
       <c r="E148" t="s">
         <v>13</v>
@@ -4871,7 +4871,7 @@
         <v>49</v>
       </c>
       <c r="D149">
-        <v>5830.8350295063401</v>
+        <v>5831</v>
       </c>
       <c r="E149" t="s">
         <v>13</v>
@@ -4897,7 +4897,7 @@
         <v>49</v>
       </c>
       <c r="D150">
-        <v>5559.8650776823597</v>
+        <v>5560</v>
       </c>
       <c r="E150" t="s">
         <v>13</v>
@@ -4923,7 +4923,7 @@
         <v>49</v>
       </c>
       <c r="D151">
-        <v>5503.0809333663101</v>
+        <v>5503</v>
       </c>
       <c r="E151" t="s">
         <v>13</v>
@@ -4949,7 +4949,7 @@
         <v>49</v>
       </c>
       <c r="D152">
-        <v>5379.55051415244</v>
+        <v>5380</v>
       </c>
       <c r="E152" t="s">
         <v>13</v>
@@ -4975,7 +4975,7 @@
         <v>49</v>
       </c>
       <c r="D153">
-        <v>5419.39903647949</v>
+        <v>5419</v>
       </c>
       <c r="E153" t="s">
         <v>13</v>
@@ -5001,7 +5001,7 @@
         <v>49</v>
       </c>
       <c r="D154">
-        <v>5356.6376138143796</v>
+        <v>5357</v>
       </c>
       <c r="E154" t="s">
         <v>13</v>
@@ -5027,7 +5027,7 @@
         <v>49</v>
       </c>
       <c r="D155">
-        <v>5385.5277925014998</v>
+        <v>5386</v>
       </c>
       <c r="E155" t="s">
         <v>13</v>
@@ -5053,7 +5053,7 @@
         <v>49</v>
       </c>
       <c r="D156">
-        <v>5837.8085209135697</v>
+        <v>5838</v>
       </c>
       <c r="E156" t="s">
         <v>13</v>
@@ -5079,7 +5079,7 @@
         <v>49</v>
       </c>
       <c r="D157">
-        <v>6554.0857097423896</v>
+        <v>6554</v>
       </c>
       <c r="E157" t="s">
         <v>13</v>
@@ -5105,7 +5105,7 @@
         <v>49</v>
       </c>
       <c r="D158">
-        <v>5793.9751463538096</v>
+        <v>5794</v>
       </c>
       <c r="E158" t="s">
         <v>13</v>
@@ -5131,7 +5131,7 @@
         <v>49</v>
       </c>
       <c r="D159">
-        <v>4559.66716727328</v>
+        <v>4560</v>
       </c>
       <c r="E159" t="s">
         <v>13</v>
@@ -5157,7 +5157,7 @@
         <v>49</v>
       </c>
       <c r="D160">
-        <v>3349.2683015889802</v>
+        <v>3349</v>
       </c>
       <c r="E160" t="s">
         <v>13</v>
@@ -5183,7 +5183,7 @@
         <v>49</v>
       </c>
       <c r="D161">
-        <v>2477.5818756846502</v>
+        <v>2478</v>
       </c>
       <c r="E161" t="s">
         <v>13</v>
@@ -5209,7 +5209,7 @@
         <v>49</v>
       </c>
       <c r="D162">
-        <v>1671.64551161996</v>
+        <v>1672</v>
       </c>
       <c r="E162" t="s">
         <v>13</v>
@@ -5235,7 +5235,7 @@
         <v>49</v>
       </c>
       <c r="D163">
-        <v>1925.6798414549301</v>
+        <v>1926</v>
       </c>
       <c r="E163" t="s">
         <v>13</v>
@@ -5261,7 +5261,7 @@
         <v>9</v>
       </c>
       <c r="D164">
-        <v>19581.011885214601</v>
+        <v>19581</v>
       </c>
       <c r="E164" t="s">
         <v>13</v>
@@ -5287,7 +5287,7 @@
         <v>44</v>
       </c>
       <c r="D165">
-        <v>14490.949443814199</v>
+        <v>14491</v>
       </c>
       <c r="E165" t="s">
         <v>13</v>
@@ -5313,7 +5313,7 @@
         <v>9</v>
       </c>
       <c r="D166">
-        <v>22361.704721706901</v>
+        <v>22362</v>
       </c>
       <c r="E166" t="s">
         <v>13</v>
@@ -5339,7 +5339,7 @@
         <v>44</v>
       </c>
       <c r="D167">
-        <v>15532.3010274513</v>
+        <v>15532</v>
       </c>
       <c r="E167" t="s">
         <v>13</v>
@@ -5365,7 +5365,7 @@
         <v>9</v>
       </c>
       <c r="D168">
-        <v>25082.7745694685</v>
+        <v>25083</v>
       </c>
       <c r="E168" t="s">
         <v>13</v>
@@ -5391,7 +5391,7 @@
         <v>44</v>
       </c>
       <c r="D169">
-        <v>16479.542251859901</v>
+        <v>16480</v>
       </c>
       <c r="E169" t="s">
         <v>13</v>
@@ -5417,7 +5417,7 @@
         <v>9</v>
       </c>
       <c r="D170">
-        <v>25594.709886501099</v>
+        <v>25595</v>
       </c>
       <c r="E170" t="s">
         <v>13</v>
@@ -5443,7 +5443,7 @@
         <v>44</v>
       </c>
       <c r="D171">
-        <v>16139.926607687499</v>
+        <v>16140</v>
       </c>
       <c r="E171" t="s">
         <v>13</v>
@@ -5469,7 +5469,7 @@
         <v>9</v>
       </c>
       <c r="D172">
-        <v>22846.912492067098</v>
+        <v>22847</v>
       </c>
       <c r="E172" t="s">
         <v>13</v>
@@ -5495,7 +5495,7 @@
         <v>44</v>
       </c>
       <c r="D173">
-        <v>15038.221641501699</v>
+        <v>15038</v>
       </c>
       <c r="E173" t="s">
         <v>13</v>
@@ -5521,7 +5521,7 @@
         <v>9</v>
       </c>
       <c r="D174">
-        <v>19742.405147813199</v>
+        <v>19742</v>
       </c>
       <c r="E174" t="s">
         <v>13</v>
@@ -5547,7 +5547,7 @@
         <v>44</v>
       </c>
       <c r="D175">
-        <v>15949.6600118559</v>
+        <v>15950</v>
       </c>
       <c r="E175" t="s">
         <v>13</v>
@@ -5573,7 +5573,7 @@
         <v>9</v>
       </c>
       <c r="D176">
-        <v>19126.643591784101</v>
+        <v>19127</v>
       </c>
       <c r="E176" t="s">
         <v>13</v>
@@ -5599,7 +5599,7 @@
         <v>44</v>
       </c>
       <c r="D177">
-        <v>15272.4746008857</v>
+        <v>15272</v>
       </c>
       <c r="E177" t="s">
         <v>13</v>
@@ -5625,7 +5625,7 @@
         <v>9</v>
       </c>
       <c r="D178">
-        <v>22054.337934974501</v>
+        <v>22054</v>
       </c>
       <c r="E178" t="s">
         <v>13</v>
@@ -5651,7 +5651,7 @@
         <v>44</v>
       </c>
       <c r="D179">
-        <v>16555.239714717602</v>
+        <v>16555</v>
       </c>
       <c r="E179" t="s">
         <v>13</v>
@@ -5677,7 +5677,7 @@
         <v>9</v>
       </c>
       <c r="D180">
-        <v>22836.632666423899</v>
+        <v>22837</v>
       </c>
       <c r="E180" t="s">
         <v>13</v>
@@ -5703,7 +5703,7 @@
         <v>44</v>
       </c>
       <c r="D181">
-        <v>16141.972485062</v>
+        <v>16142</v>
       </c>
       <c r="E181" t="s">
         <v>13</v>
@@ -5729,7 +5729,7 @@
         <v>9</v>
       </c>
       <c r="D182">
-        <v>23737.145392770399</v>
+        <v>23737</v>
       </c>
       <c r="E182" t="s">
         <v>13</v>
@@ -5755,7 +5755,7 @@
         <v>44</v>
       </c>
       <c r="D183">
-        <v>15837.136756256699</v>
+        <v>15837</v>
       </c>
       <c r="E183" t="s">
         <v>13</v>
@@ -5781,7 +5781,7 @@
         <v>9</v>
       </c>
       <c r="D184">
-        <v>24867.926213525101</v>
+        <v>24868</v>
       </c>
       <c r="E184" t="s">
         <v>13</v>
@@ -5807,7 +5807,7 @@
         <v>44</v>
       </c>
       <c r="D185">
-        <v>15810.540350387701</v>
+        <v>15811</v>
       </c>
       <c r="E185" t="s">
         <v>13</v>
@@ -5833,7 +5833,7 @@
         <v>9</v>
       </c>
       <c r="D186">
-        <v>26038.798354288399</v>
+        <v>26039</v>
       </c>
       <c r="E186" t="s">
         <v>13</v>
@@ -5859,7 +5859,7 @@
         <v>44</v>
       </c>
       <c r="D187">
-        <v>17458.494575573699</v>
+        <v>17458</v>
       </c>
       <c r="E187" t="s">
         <v>13</v>
@@ -5885,7 +5885,7 @@
         <v>9</v>
       </c>
       <c r="D188">
-        <v>23865.643213310701</v>
+        <v>23866</v>
       </c>
       <c r="E188" t="s">
         <v>13</v>
@@ -5911,7 +5911,7 @@
         <v>44</v>
       </c>
       <c r="D189">
-        <v>17829.8213190514</v>
+        <v>17830</v>
       </c>
       <c r="E189" t="s">
         <v>13</v>
@@ -5937,7 +5937,7 @@
         <v>9</v>
       </c>
       <c r="D190">
-        <v>19048.5169168955</v>
+        <v>19049</v>
       </c>
       <c r="E190" t="s">
         <v>13</v>
@@ -5963,7 +5963,7 @@
         <v>44</v>
       </c>
       <c r="D191">
-        <v>15043.336334938</v>
+        <v>15043</v>
       </c>
       <c r="E191" t="s">
         <v>13</v>
@@ -5989,7 +5989,7 @@
         <v>9</v>
       </c>
       <c r="D192">
-        <v>14925.2788513981</v>
+        <v>14925</v>
       </c>
       <c r="E192" t="s">
         <v>13</v>
@@ -6015,7 +6015,7 @@
         <v>44</v>
       </c>
       <c r="D193">
-        <v>12079.882957927601</v>
+        <v>12080</v>
       </c>
       <c r="E193" t="s">
         <v>13</v>
@@ -6041,7 +6041,7 @@
         <v>9</v>
       </c>
       <c r="D194">
-        <v>10183.1952821785</v>
+        <v>10183</v>
       </c>
       <c r="E194" t="s">
         <v>13</v>
@@ -6067,7 +6067,7 @@
         <v>44</v>
       </c>
       <c r="D195">
-        <v>8539.4921612989892</v>
+        <v>8539</v>
       </c>
       <c r="E195" t="s">
         <v>13</v>
@@ -6093,7 +6093,7 @@
         <v>9</v>
       </c>
       <c r="D196">
-        <v>6903.9309019897901</v>
+        <v>6904</v>
       </c>
       <c r="E196" t="s">
         <v>13</v>
@@ -6119,7 +6119,7 @@
         <v>44</v>
       </c>
       <c r="D197">
-        <v>6041.47588699471</v>
+        <v>6041</v>
       </c>
       <c r="E197" t="s">
         <v>13</v>
@@ -6145,7 +6145,7 @@
         <v>9</v>
       </c>
       <c r="D198">
-        <v>8554.8709002916894</v>
+        <v>8555</v>
       </c>
       <c r="E198" t="s">
         <v>13</v>
@@ -6171,7 +6171,7 @@
         <v>44</v>
       </c>
       <c r="D199">
-        <v>7051.1163713265296</v>
+        <v>7051</v>
       </c>
       <c r="E199" t="s">
         <v>13</v>
@@ -6197,7 +6197,7 @@
         <v>44</v>
       </c>
       <c r="D200">
-        <v>3184.1244990892501</v>
+        <v>3184</v>
       </c>
       <c r="E200" t="s">
         <v>13</v>
@@ -6223,7 +6223,7 @@
         <v>44</v>
       </c>
       <c r="D201">
-        <v>3338.7234699453502</v>
+        <v>3339</v>
       </c>
       <c r="E201" t="s">
         <v>13</v>
@@ -6249,7 +6249,7 @@
         <v>44</v>
       </c>
       <c r="D202">
-        <v>3287.5317577413398</v>
+        <v>3288</v>
       </c>
       <c r="E202" t="s">
         <v>13</v>
@@ -6275,7 +6275,7 @@
         <v>44</v>
       </c>
       <c r="D203">
-        <v>2983.45298724954</v>
+        <v>2983</v>
       </c>
       <c r="E203" t="s">
         <v>13</v>
@@ -6301,7 +6301,7 @@
         <v>44</v>
       </c>
       <c r="D204">
-        <v>3012.1203460837801</v>
+        <v>3012</v>
       </c>
       <c r="E204" t="s">
         <v>13</v>
@@ -6327,7 +6327,7 @@
         <v>44</v>
       </c>
       <c r="D205">
-        <v>3294.6985974498998</v>
+        <v>3295</v>
       </c>
       <c r="E205" t="s">
         <v>13</v>
@@ -6353,7 +6353,7 @@
         <v>44</v>
       </c>
       <c r="D206">
-        <v>3132.9327868852401</v>
+        <v>3133</v>
       </c>
       <c r="E206" t="s">
         <v>13</v>
@@ -6379,7 +6379,7 @@
         <v>44</v>
       </c>
       <c r="D207">
-        <v>3073.5504007285899</v>
+        <v>3074</v>
       </c>
       <c r="E207" t="s">
         <v>13</v>
@@ -6405,7 +6405,7 @@
         <v>44</v>
       </c>
       <c r="D208">
-        <v>3040.7877049180302</v>
+        <v>3041</v>
       </c>
       <c r="E208" t="s">
         <v>13</v>
@@ -6431,7 +6431,7 @@
         <v>44</v>
       </c>
       <c r="D209">
-        <v>3150.3379690346001</v>
+        <v>3150</v>
       </c>
       <c r="E209" t="s">
         <v>13</v>
@@ -6457,7 +6457,7 @@
         <v>44</v>
       </c>
       <c r="D210">
-        <v>3457.4882422586502</v>
+        <v>3457</v>
       </c>
       <c r="E210" t="s">
         <v>13</v>
@@ -6483,7 +6483,7 @@
         <v>44</v>
       </c>
       <c r="D211">
-        <v>3913.0944808743102</v>
+        <v>3913</v>
       </c>
       <c r="E211" t="s">
         <v>13</v>
@@ -6509,7 +6509,7 @@
         <v>44</v>
       </c>
       <c r="D212">
-        <v>3931.5234972677499</v>
+        <v>3932</v>
       </c>
       <c r="E212" t="s">
         <v>13</v>
@@ -6535,7 +6535,7 @@
         <v>44</v>
       </c>
       <c r="D213">
-        <v>3616.18255009107</v>
+        <v>3616</v>
       </c>
       <c r="E213" t="s">
         <v>13</v>
@@ -6561,7 +6561,7 @@
         <v>44</v>
       </c>
       <c r="D214">
-        <v>3004.9535063752201</v>
+        <v>3005</v>
       </c>
       <c r="E214" t="s">
         <v>13</v>
@@ -6587,7 +6587,7 @@
         <v>44</v>
       </c>
       <c r="D215">
-        <v>2084.52652094717</v>
+        <v>2085</v>
       </c>
       <c r="E215" t="s">
         <v>13</v>
@@ -6613,7 +6613,7 @@
         <v>44</v>
       </c>
       <c r="D216">
-        <v>1362.7233788706701</v>
+        <v>1363</v>
       </c>
       <c r="E216" t="s">
         <v>13</v>
@@ -6639,7 +6639,7 @@
         <v>44</v>
       </c>
       <c r="D217">
-        <v>1563.39489071038</v>
+        <v>1563</v>
       </c>
       <c r="E217" t="s">
         <v>13</v>
@@ -6665,7 +6665,7 @@
         <v>9</v>
       </c>
       <c r="D218">
-        <v>2823.6544940434801</v>
+        <v>2824</v>
       </c>
       <c r="E218" t="s">
         <v>13</v>
@@ -6691,7 +6691,7 @@
         <v>9</v>
       </c>
       <c r="D219">
-        <v>2968.974811106476</v>
+        <v>2969</v>
       </c>
       <c r="E219" t="s">
         <v>13</v>
@@ -6717,7 +6717,7 @@
         <v>9</v>
       </c>
       <c r="D220">
-        <v>3321.1747462105409</v>
+        <v>3321</v>
       </c>
       <c r="E220" t="s">
         <v>13</v>
@@ -6743,7 +6743,7 @@
         <v>9</v>
       </c>
       <c r="D221">
-        <v>3176.8635980160384</v>
+        <v>3177</v>
       </c>
       <c r="E221" t="s">
         <v>13</v>
@@ -6769,7 +6769,7 @@
         <v>9</v>
       </c>
       <c r="D222">
-        <v>2868.0579242571735</v>
+        <v>2868</v>
       </c>
       <c r="E222" t="s">
         <v>13</v>
@@ -6795,7 +6795,7 @@
         <v>9</v>
       </c>
       <c r="D223">
-        <v>3115.3042970379643</v>
+        <v>3115</v>
       </c>
       <c r="E223" t="s">
         <v>13</v>
@@ -6821,7 +6821,7 @@
         <v>9</v>
       </c>
       <c r="D224">
-        <v>3012.3690724516755</v>
+        <v>3012</v>
       </c>
       <c r="E224" t="s">
         <v>13</v>
@@ -6847,7 +6847,7 @@
         <v>9</v>
       </c>
       <c r="D225">
-        <v>3258.6062763639734</v>
+        <v>3259</v>
       </c>
       <c r="E225" t="s">
         <v>13</v>
@@ -6873,7 +6873,7 @@
         <v>9</v>
       </c>
       <c r="D226">
-        <v>2961.9106290270247</v>
+        <v>2962</v>
       </c>
       <c r="E226" t="s">
         <v>13</v>
@@ -6899,7 +6899,7 @@
         <v>9</v>
       </c>
       <c r="D227">
-        <v>3079.9833866407084</v>
+        <v>3080</v>
       </c>
       <c r="E227" t="s">
         <v>13</v>
@@ -6925,7 +6925,7 @@
         <v>9</v>
       </c>
       <c r="D228">
-        <v>3440.256672692718</v>
+        <v>3440</v>
       </c>
       <c r="E228" t="s">
         <v>13</v>
@@ -6951,7 +6951,7 @@
         <v>9</v>
       </c>
       <c r="D229">
-        <v>4037.6846428405879</v>
+        <v>4038</v>
       </c>
       <c r="E229" t="s">
         <v>13</v>
@@ -6977,7 +6977,7 @@
         <v>9</v>
       </c>
       <c r="D230">
-        <v>4111.3539702405787</v>
+        <v>4111</v>
       </c>
       <c r="E230" t="s">
         <v>13</v>
@@ -7003,7 +7003,7 @@
         <v>9</v>
       </c>
       <c r="D231">
-        <v>3429.1558151392942</v>
+        <v>3429</v>
       </c>
       <c r="E231" t="s">
         <v>13</v>
@@ -7029,7 +7029,7 @@
         <v>9</v>
       </c>
       <c r="D232">
-        <v>2670.260826032541</v>
+        <v>2670</v>
       </c>
       <c r="E232" t="s">
         <v>13</v>
@@ -7055,7 +7055,7 @@
         <v>9</v>
       </c>
       <c r="D233">
-        <v>2090.9978955175452</v>
+        <v>2091</v>
       </c>
       <c r="E233" t="s">
         <v>13</v>
@@ -7081,7 +7081,7 @@
         <v>9</v>
       </c>
       <c r="D234">
-        <v>1533.9366801093961</v>
+        <v>1534</v>
       </c>
       <c r="E234" t="s">
         <v>13</v>
@@ -7107,7 +7107,7 @@
         <v>9</v>
       </c>
       <c r="D235">
-        <v>2000.1726973531729</v>
+        <v>2000</v>
       </c>
       <c r="E235" t="s">
         <v>13</v>
@@ -7133,7 +7133,7 @@
         <v>9</v>
       </c>
       <c r="D236">
-        <v>90.002042386928721</v>
+        <v>90</v>
       </c>
       <c r="E236" t="s">
         <v>13</v>
@@ -7159,7 +7159,7 @@
         <v>9</v>
       </c>
       <c r="D237">
-        <v>102.24058726024153</v>
+        <v>102</v>
       </c>
       <c r="E237" t="s">
         <v>13</v>
@@ -7185,7 +7185,7 @@
         <v>9</v>
       </c>
       <c r="D238">
-        <v>99.532944589154638</v>
+        <v>100</v>
       </c>
       <c r="E238" t="s">
         <v>13</v>
@@ -7211,7 +7211,7 @@
         <v>9</v>
       </c>
       <c r="D239">
-        <v>94.225964953824288</v>
+        <v>94</v>
       </c>
       <c r="E239" t="s">
         <v>13</v>
@@ -7237,7 +7237,7 @@
         <v>9</v>
       </c>
       <c r="D240">
-        <v>83.178782855789734</v>
+        <v>83</v>
       </c>
       <c r="E240" t="s">
         <v>13</v>
@@ -7263,7 +7263,7 @@
         <v>9</v>
       </c>
       <c r="D241">
-        <v>102.13228155339806</v>
+        <v>102</v>
       </c>
       <c r="E241" t="s">
         <v>13</v>
@@ -7289,7 +7289,7 @@
         <v>9</v>
       </c>
       <c r="D242">
-        <v>91.085099455363491</v>
+        <v>91</v>
       </c>
       <c r="E242" t="s">
         <v>13</v>
@@ -7315,7 +7315,7 @@
         <v>9</v>
       </c>
       <c r="D243">
-        <v>92.384767937485194</v>
+        <v>92</v>
       </c>
       <c r="E243" t="s">
         <v>13</v>
@@ -7341,7 +7341,7 @@
         <v>9</v>
       </c>
       <c r="D244">
-        <v>93.034602178546052</v>
+        <v>93</v>
       </c>
       <c r="E244" t="s">
         <v>13</v>
@@ -7367,7 +7367,7 @@
         <v>9</v>
       </c>
       <c r="D245">
-        <v>96.175467677006864</v>
+        <v>96</v>
       </c>
       <c r="E245" t="s">
         <v>13</v>
@@ -7393,7 +7393,7 @@
         <v>9</v>
       </c>
       <c r="D246">
-        <v>115.99541202936301</v>
+        <v>116</v>
       </c>
       <c r="E246" t="s">
         <v>13</v>
@@ -7419,7 +7419,7 @@
         <v>9</v>
       </c>
       <c r="D247">
-        <v>123.90172862893678</v>
+        <v>124</v>
       </c>
       <c r="E247" t="s">
         <v>13</v>
@@ -7445,7 +7445,7 @@
         <v>9</v>
       </c>
       <c r="D248">
-        <v>132.24126805588443</v>
+        <v>132</v>
       </c>
       <c r="E248" t="s">
         <v>13</v>
@@ -7471,7 +7471,7 @@
         <v>9</v>
       </c>
       <c r="D249">
-        <v>115.99541202936301</v>
+        <v>116</v>
       </c>
       <c r="E249" t="s">
         <v>13</v>
@@ -7497,7 +7497,7 @@
         <v>9</v>
       </c>
       <c r="D250">
-        <v>101.9156701397111</v>
+        <v>102</v>
       </c>
       <c r="E250" t="s">
         <v>13</v>
@@ -7523,7 +7523,7 @@
         <v>9</v>
       </c>
       <c r="D251">
-        <v>67.474455363485674</v>
+        <v>67</v>
       </c>
       <c r="E251" t="s">
         <v>13</v>
@@ -7549,7 +7549,7 @@
         <v>9</v>
       </c>
       <c r="D252">
-        <v>51.553516457494673</v>
+        <v>52</v>
       </c>
       <c r="E252" t="s">
         <v>13</v>
@@ -7575,7 +7575,7 @@
         <v>9</v>
       </c>
       <c r="D253">
-        <v>64.983424106085721</v>
+        <v>65</v>
       </c>
       <c r="E253" t="s">
         <v>13</v>
@@ -7601,7 +7601,7 @@
         <v>9</v>
       </c>
       <c r="D254">
-        <v>8164.0542806693402</v>
+        <v>8164</v>
       </c>
       <c r="E254" t="s">
         <v>13</v>
@@ -7627,7 +7627,7 @@
         <v>9</v>
       </c>
       <c r="D255">
-        <v>9385.1691836195096</v>
+        <v>9385</v>
       </c>
       <c r="E255" t="s">
         <v>13</v>
@@ -7653,7 +7653,7 @@
         <v>9</v>
       </c>
       <c r="D256">
-        <v>10509.0809102154</v>
+        <v>10509</v>
       </c>
       <c r="E256" t="s">
         <v>13</v>
@@ -7679,7 +7679,7 @@
         <v>9</v>
       </c>
       <c r="D257">
-        <v>10258.985237720601</v>
+        <v>10259</v>
       </c>
       <c r="E257" t="s">
         <v>13</v>
@@ -7705,7 +7705,7 @@
         <v>9</v>
       </c>
       <c r="D258">
-        <v>8718.9224123581407</v>
+        <v>8719</v>
       </c>
       <c r="E258" t="s">
         <v>13</v>
@@ -7731,7 +7731,7 @@
         <v>9</v>
       </c>
       <c r="D259">
-        <v>8664.2456256588794</v>
+        <v>8664</v>
       </c>
       <c r="E259" t="s">
         <v>13</v>
@@ -7757,7 +7757,7 @@
         <v>9</v>
       </c>
       <c r="D260">
-        <v>8791.8247946238207</v>
+        <v>8792</v>
       </c>
       <c r="E260" t="s">
         <v>13</v>
@@ -7783,7 +7783,7 @@
         <v>9</v>
       </c>
       <c r="D261">
-        <v>9754.7437603830404</v>
+        <v>9755</v>
       </c>
       <c r="E261" t="s">
         <v>13</v>
@@ -7809,7 +7809,7 @@
         <v>9</v>
       </c>
       <c r="D262">
-        <v>9727.4053670334106</v>
+        <v>9727</v>
       </c>
       <c r="E262" t="s">
         <v>13</v>
@@ -7835,7 +7835,7 @@
         <v>9</v>
       </c>
       <c r="D263">
-        <v>10526.293972694801</v>
+        <v>10526</v>
       </c>
       <c r="E263" t="s">
         <v>13</v>
@@ -7861,7 +7861,7 @@
         <v>9</v>
       </c>
       <c r="D264">
-        <v>11757.5342065152</v>
+        <v>11758</v>
       </c>
       <c r="E264" t="s">
         <v>13</v>
@@ -7887,7 +7887,7 @@
         <v>9</v>
       </c>
       <c r="D265">
-        <v>12189.8858346742</v>
+        <v>12190</v>
       </c>
       <c r="E265" t="s">
         <v>13</v>
@@ -7913,7 +7913,7 @@
         <v>9</v>
       </c>
       <c r="D266">
-        <v>10962.695733201899</v>
+        <v>10963</v>
       </c>
       <c r="E266" t="s">
         <v>13</v>
@@ -7939,7 +7939,7 @@
         <v>9</v>
       </c>
       <c r="D267">
-        <v>8619.6941698298506</v>
+        <v>8620</v>
       </c>
       <c r="E267" t="s">
         <v>13</v>
@@ -7965,7 +7965,7 @@
         <v>9</v>
       </c>
       <c r="D268">
-        <v>6876.1121939756304</v>
+        <v>6876</v>
       </c>
       <c r="E268" t="s">
         <v>13</v>
@@ -7991,7 +7991,7 @@
         <v>9</v>
       </c>
       <c r="D269">
-        <v>4963.4371925884998</v>
+        <v>4963</v>
       </c>
       <c r="E269" t="s">
         <v>13</v>
@@ -8017,7 +8017,7 @@
         <v>9</v>
       </c>
       <c r="D270">
-        <v>2875.5939671463402</v>
+        <v>2876</v>
       </c>
       <c r="E270" t="s">
         <v>13</v>
@@ -8043,7 +8043,7 @@
         <v>9</v>
       </c>
       <c r="D271">
-        <v>3085.18831616017</v>
+        <v>3085</v>
       </c>
       <c r="E271" t="s">
         <v>13</v>
@@ -8069,7 +8069,7 @@
         <v>9</v>
       </c>
       <c r="D272">
-        <v>545.85954053088915</v>
+        <v>546</v>
       </c>
       <c r="E272" t="s">
         <v>13</v>
@@ -8095,7 +8095,7 @@
         <v>9</v>
       </c>
       <c r="D273">
-        <v>615.09836130619362</v>
+        <v>615</v>
       </c>
       <c r="E273" t="s">
         <v>13</v>
@@ -8121,7 +8121,7 @@
         <v>9</v>
       </c>
       <c r="D274">
-        <v>665.01472046978529</v>
+        <v>665</v>
       </c>
       <c r="E274" t="s">
         <v>13</v>
@@ -8147,7 +8147,7 @@
         <v>9</v>
       </c>
       <c r="D275">
-        <v>629.59020751497837</v>
+        <v>630</v>
       </c>
       <c r="E275" t="s">
         <v>13</v>
@@ -8173,7 +8173,7 @@
         <v>9</v>
       </c>
       <c r="D276">
-        <v>551.09270721739472</v>
+        <v>551</v>
       </c>
       <c r="E276" t="s">
         <v>13</v>
@@ -8199,7 +8199,7 @@
         <v>9</v>
       </c>
       <c r="D277">
-        <v>571.22027139626232</v>
+        <v>571</v>
       </c>
       <c r="E277" t="s">
         <v>13</v>
@@ -8225,7 +8225,7 @@
         <v>9</v>
       </c>
       <c r="D278">
-        <v>563.97434829187</v>
+        <v>564</v>
       </c>
       <c r="E278" t="s">
         <v>13</v>
@@ -8251,7 +8251,7 @@
         <v>9</v>
       </c>
       <c r="D279">
-        <v>611.87795103757492</v>
+        <v>612</v>
       </c>
       <c r="E279" t="s">
         <v>13</v>
@@ -8277,7 +8277,7 @@
         <v>9</v>
       </c>
       <c r="D280">
-        <v>591.75038685870732</v>
+        <v>592</v>
       </c>
       <c r="E280" t="s">
         <v>13</v>
@@ -8303,7 +8303,7 @@
         <v>9</v>
       </c>
       <c r="D281">
-        <v>604.6320279331826</v>
+        <v>605</v>
       </c>
       <c r="E281" t="s">
         <v>13</v>
@@ -8329,7 +8329,7 @@
         <v>9</v>
       </c>
       <c r="D282">
-        <v>667.43002817124955</v>
+        <v>667</v>
       </c>
       <c r="E282" t="s">
         <v>13</v>
@@ -8355,7 +8355,7 @@
         <v>9</v>
       </c>
       <c r="D283">
-        <v>763.63978494623655</v>
+        <v>764</v>
       </c>
       <c r="E283" t="s">
         <v>13</v>
@@ -8381,7 +8381,7 @@
         <v>9</v>
       </c>
       <c r="D284">
-        <v>734.25354124508999</v>
+        <v>734</v>
       </c>
       <c r="E284" t="s">
         <v>13</v>
@@ -8407,7 +8407,7 @@
         <v>9</v>
       </c>
       <c r="D285">
-        <v>598.19120739594496</v>
+        <v>598</v>
       </c>
       <c r="E285" t="s">
         <v>13</v>
@@ -8433,7 +8433,7 @@
         <v>9</v>
       </c>
       <c r="D286">
-        <v>530.16004047137244</v>
+        <v>530</v>
       </c>
       <c r="E286" t="s">
         <v>13</v>
@@ -8459,7 +8459,7 @@
         <v>9</v>
       </c>
       <c r="D287">
-        <v>398.52577074157841</v>
+        <v>399</v>
       </c>
       <c r="E287" t="s">
         <v>13</v>
@@ -8485,7 +8485,7 @@
         <v>9</v>
       </c>
       <c r="D288">
-        <v>268.50170614609374</v>
+        <v>269</v>
       </c>
       <c r="E288" t="s">
         <v>13</v>
@@ -8511,7 +8511,7 @@
         <v>9</v>
       </c>
       <c r="D289">
-        <v>323.65123199619092</v>
+        <v>324</v>
       </c>
       <c r="E289" t="s">
         <v>13</v>
@@ -8537,7 +8537,7 @@
         <v>44</v>
       </c>
       <c r="D290">
-        <v>4532.3444985872802</v>
+        <v>4532</v>
       </c>
       <c r="E290" t="s">
         <v>13</v>
@@ -8563,7 +8563,7 @@
         <v>44</v>
       </c>
       <c r="D291">
-        <v>4955.89021743581</v>
+        <v>4956</v>
       </c>
       <c r="E291" t="s">
         <v>13</v>
@@ -8589,7 +8589,7 @@
         <v>44</v>
       </c>
       <c r="D292">
-        <v>5385.5155399041796</v>
+        <v>5386</v>
       </c>
       <c r="E292" t="s">
         <v>13</v>
@@ -8615,7 +8615,7 @@
         <v>44</v>
       </c>
       <c r="D293">
-        <v>5563.8505794193497</v>
+        <v>5564</v>
       </c>
       <c r="E293" t="s">
         <v>13</v>
@@ -8641,7 +8641,7 @@
         <v>44</v>
       </c>
       <c r="D294">
-        <v>5366.2634617746999</v>
+        <v>5366</v>
       </c>
       <c r="E294" t="s">
         <v>13</v>
@@ -8667,7 +8667,7 @@
         <v>44</v>
       </c>
       <c r="D295">
-        <v>5143.3446623807304</v>
+        <v>5143</v>
       </c>
       <c r="E295" t="s">
         <v>13</v>
@@ -8693,7 +8693,7 @@
         <v>44</v>
       </c>
       <c r="D296">
-        <v>5251.7642602677997</v>
+        <v>5252</v>
       </c>
       <c r="E296" t="s">
         <v>13</v>
@@ -8719,7 +8719,7 @@
         <v>44</v>
       </c>
       <c r="D297">
-        <v>5878.9767003808101</v>
+        <v>5879</v>
       </c>
       <c r="E297" t="s">
         <v>13</v>
@@ -8745,7 +8745,7 @@
         <v>44</v>
       </c>
       <c r="D298">
-        <v>5720.9070062650899</v>
+        <v>5721</v>
       </c>
       <c r="E298" t="s">
         <v>13</v>
@@ -8771,7 +8771,7 @@
         <v>44</v>
       </c>
       <c r="D299">
-        <v>5620.5935465378097</v>
+        <v>5621</v>
       </c>
       <c r="E299" t="s">
         <v>13</v>
@@ -8797,7 +8797,7 @@
         <v>44</v>
       </c>
       <c r="D300">
-        <v>5515.2137504606599</v>
+        <v>5515</v>
       </c>
       <c r="E300" t="s">
         <v>13</v>
@@ -8823,7 +8823,7 @@
         <v>44</v>
       </c>
       <c r="D301">
-        <v>6051.2321362761504</v>
+        <v>6051</v>
       </c>
       <c r="E301" t="s">
         <v>13</v>
@@ -8849,7 +8849,7 @@
         <v>44</v>
       </c>
       <c r="D302">
-        <v>6382.5705335571802</v>
+        <v>6383</v>
       </c>
       <c r="E302" t="s">
         <v>13</v>
@@ -8875,7 +8875,7 @@
         <v>44</v>
       </c>
       <c r="D303">
-        <v>5364.2369272347496</v>
+        <v>5364</v>
       </c>
       <c r="E303" t="s">
         <v>13</v>
@@ -8901,7 +8901,7 @@
         <v>44</v>
       </c>
       <c r="D304">
-        <v>4268.8950083944101</v>
+        <v>4269</v>
       </c>
       <c r="E304" t="s">
         <v>13</v>
@@ -8927,7 +8927,7 @@
         <v>44</v>
       </c>
       <c r="D305">
-        <v>2746.9675688956199</v>
+        <v>2747</v>
       </c>
       <c r="E305" t="s">
         <v>13</v>
@@ -8953,7 +8953,7 @@
         <v>44</v>
       </c>
       <c r="D306">
-        <v>1889.74345849883</v>
+        <v>1890</v>
       </c>
       <c r="E306" t="s">
         <v>13</v>
@@ -8979,7 +8979,7 @@
         <v>44</v>
       </c>
       <c r="D307">
-        <v>2137.99393964211</v>
+        <v>2138</v>
       </c>
       <c r="E307" t="s">
         <v>13</v>
@@ -9005,7 +9005,7 @@
         <v>49</v>
       </c>
       <c r="D308">
-        <v>5703.3336275780403</v>
+        <v>5703</v>
       </c>
       <c r="E308" t="s">
         <v>13</v>
@@ -9031,7 +9031,7 @@
         <v>49</v>
       </c>
       <c r="D309">
-        <v>6143.2157187905004</v>
+        <v>6143</v>
       </c>
       <c r="E309" t="s">
         <v>13</v>
@@ -9057,7 +9057,7 @@
         <v>49</v>
       </c>
       <c r="D310">
-        <v>6312.7115704503403</v>
+        <v>6313</v>
       </c>
       <c r="E310" t="s">
         <v>13</v>
@@ -9083,7 +9083,7 @@
         <v>49</v>
       </c>
       <c r="D311">
-        <v>5941.4349430049697</v>
+        <v>5941</v>
       </c>
       <c r="E311" t="s">
         <v>13</v>
@@ -9109,7 +9109,7 @@
         <v>49</v>
       </c>
       <c r="D312">
-        <v>5574.1939310752996</v>
+        <v>5574</v>
       </c>
       <c r="E312" t="s">
         <v>13</v>
@@ -9135,7 +9135,7 @@
         <v>49</v>
       </c>
       <c r="D313">
-        <v>5883.9274219060899</v>
+        <v>5884</v>
       </c>
       <c r="E313" t="s">
         <v>13</v>
@@ -9161,7 +9161,7 @@
         <v>49</v>
       </c>
       <c r="D314">
-        <v>5754.7877254033501</v>
+        <v>5755</v>
       </c>
       <c r="E314" t="s">
         <v>13</v>
@@ -9187,7 +9187,7 @@
         <v>49</v>
       </c>
       <c r="D315">
-        <v>6356.09443724423</v>
+        <v>6356</v>
       </c>
       <c r="E315" t="s">
         <v>13</v>
@@ -9213,7 +9213,7 @@
         <v>49</v>
       </c>
       <c r="D316">
-        <v>5814.3130542600802</v>
+        <v>5814</v>
       </c>
       <c r="E316" t="s">
         <v>13</v>
@@ -9239,7 +9239,7 @@
         <v>49</v>
       </c>
       <c r="D317">
-        <v>5814.3130542600802</v>
+        <v>5814</v>
       </c>
       <c r="E317" t="s">
         <v>13</v>
@@ -9265,7 +9265,7 @@
         <v>49</v>
       </c>
       <c r="D318">
-        <v>6779.8340663938498</v>
+        <v>6780</v>
       </c>
       <c r="E318" t="s">
         <v>13</v>
@@ -9291,7 +9291,7 @@
         <v>49</v>
       </c>
       <c r="D319">
-        <v>7531.4674561949496</v>
+        <v>7531</v>
       </c>
       <c r="E319" t="s">
         <v>13</v>
@@ -9317,7 +9317,7 @@
         <v>49</v>
       </c>
       <c r="D320">
-        <v>7208.6182149381002</v>
+        <v>7209</v>
       </c>
       <c r="E320" t="s">
         <v>13</v>
@@ -9343,7 +9343,7 @@
         <v>49</v>
       </c>
       <c r="D321">
-        <v>5837.5178434754198</v>
+        <v>5838</v>
       </c>
       <c r="E321" t="s">
         <v>13</v>
@@ -9369,7 +9369,7 @@
         <v>49</v>
       </c>
       <c r="D322">
-        <v>4747.9016542335503</v>
+        <v>4748</v>
       </c>
       <c r="E322" t="s">
         <v>13</v>
@@ -9395,7 +9395,7 @@
         <v>49</v>
       </c>
       <c r="D323">
-        <v>3349.5608780398102</v>
+        <v>3350</v>
       </c>
       <c r="E323" t="s">
         <v>13</v>
@@ -9421,7 +9421,7 @@
         <v>49</v>
       </c>
       <c r="D324">
-        <v>2282.1405741343501</v>
+        <v>2282</v>
       </c>
       <c r="E324" t="s">
         <v>13</v>
@@ -9447,7 +9447,7 @@
         <v>49</v>
       </c>
       <c r="D325">
-        <v>2667.54185588472</v>
+        <v>2668</v>
       </c>
       <c r="E325" t="s">
         <v>13</v>
@@ -9473,7 +9473,7 @@
         <v>49</v>
       </c>
       <c r="D326">
-        <v>2428.5678088385198</v>
+        <v>2429</v>
       </c>
       <c r="E326" t="s">
         <v>13</v>
@@ -9499,7 +9499,7 @@
         <v>49</v>
       </c>
       <c r="D327">
-        <v>2800.3814379436999</v>
+        <v>2800</v>
       </c>
       <c r="E327" t="s">
         <v>13</v>
@@ -9525,7 +9525,7 @@
         <v>49</v>
       </c>
       <c r="D328">
-        <v>3130.1995882794299</v>
+        <v>3130</v>
       </c>
       <c r="E328" t="s">
         <v>13</v>
@@ -9551,7 +9551,7 @@
         <v>49</v>
       </c>
       <c r="D329">
-        <v>3797.00584874078</v>
+        <v>3797</v>
       </c>
       <c r="E329" t="s">
         <v>13</v>
@@ -9577,7 +9577,7 @@
         <v>49</v>
       </c>
       <c r="D330">
-        <v>4898.1068164765102</v>
+        <v>4898</v>
       </c>
       <c r="E330" t="s">
         <v>13</v>
@@ -9603,7 +9603,7 @@
         <v>49</v>
       </c>
       <c r="D331">
-        <v>2753.2645593243101</v>
+        <v>2753</v>
       </c>
       <c r="E331" t="s">
         <v>13</v>
@@ -9629,7 +9629,7 @@
         <v>49</v>
       </c>
       <c r="D332">
-        <v>2470.5632876079799</v>
+        <v>2471</v>
       </c>
       <c r="E332" t="s">
         <v>13</v>
@@ -9655,7 +9655,7 @@
         <v>49</v>
       </c>
       <c r="D333">
-        <v>2866.95963599284</v>
+        <v>2867</v>
       </c>
       <c r="E333" t="s">
         <v>13</v>
@@ -9681,7 +9681,7 @@
         <v>49</v>
       </c>
       <c r="D334">
-        <v>2926.3678742520701</v>
+        <v>2926</v>
       </c>
       <c r="E334" t="s">
         <v>13</v>
@@ -9707,7 +9707,7 @@
         <v>49</v>
       </c>
       <c r="D335">
-        <v>3095.3740692998799</v>
+        <v>3095</v>
       </c>
       <c r="E335" t="s">
         <v>13</v>
@@ -9733,7 +9733,7 @@
         <v>49</v>
       </c>
       <c r="D336">
-        <v>3401.6337803259098</v>
+        <v>3402</v>
       </c>
       <c r="E336" t="s">
         <v>13</v>
@@ -9759,7 +9759,7 @@
         <v>49</v>
       </c>
       <c r="D337">
-        <v>4024.39600207784</v>
+        <v>4024</v>
       </c>
       <c r="E337" t="s">
         <v>13</v>
@@ -9785,7 +9785,7 @@
         <v>49</v>
       </c>
       <c r="D338">
-        <v>3914.7980452892598</v>
+        <v>3915</v>
       </c>
       <c r="E338" t="s">
         <v>13</v>
@@ -9811,7 +9811,7 @@
         <v>49</v>
       </c>
       <c r="D339">
-        <v>3445.6778190353398</v>
+        <v>3446</v>
       </c>
       <c r="E339" t="s">
         <v>13</v>
@@ -9837,7 +9837,7 @@
         <v>49</v>
       </c>
       <c r="D340">
-        <v>2719.46332031475</v>
+        <v>2719</v>
       </c>
       <c r="E340" t="s">
         <v>13</v>
@@ -9863,7 +9863,7 @@
         <v>49</v>
       </c>
       <c r="D341">
-        <v>1884.6751447755701</v>
+        <v>1885</v>
       </c>
       <c r="E341" t="s">
         <v>13</v>
@@ -9889,7 +9889,7 @@
         <v>49</v>
       </c>
       <c r="D342">
-        <v>1262.9372029936301</v>
+        <v>1263</v>
       </c>
       <c r="E342" t="s">
         <v>13</v>
@@ -9915,7 +9915,7 @@
         <v>49</v>
       </c>
       <c r="D343">
-        <v>1410.4335186717201</v>
+        <v>1410</v>
       </c>
       <c r="E343" t="s">
         <v>13</v>
@@ -9941,7 +9941,7 @@
         <v>9</v>
       </c>
       <c r="D344">
-        <v>19634.597363283199</v>
+        <v>19635</v>
       </c>
       <c r="E344" t="s">
         <v>13</v>
@@ -9967,7 +9967,7 @@
         <v>9</v>
       </c>
       <c r="D345">
-        <v>21911.277360034099</v>
+        <v>21911</v>
       </c>
       <c r="E345" t="s">
         <v>13</v>
@@ -9993,7 +9993,7 @@
         <v>9</v>
       </c>
       <c r="D346">
-        <v>25241.452137890199</v>
+        <v>25241</v>
       </c>
       <c r="E346" t="s">
         <v>13</v>
@@ -10019,7 +10019,7 @@
         <v>9</v>
       </c>
       <c r="D347">
-        <v>24933.383194230399</v>
+        <v>24933</v>
       </c>
       <c r="E347" t="s">
         <v>13</v>
@@ -10045,7 +10045,7 @@
         <v>9</v>
       </c>
       <c r="D348">
-        <v>21608.258726926098</v>
+        <v>21608</v>
       </c>
       <c r="E348" t="s">
         <v>13</v>
@@ -10071,7 +10071,7 @@
         <v>9</v>
       </c>
       <c r="D349">
-        <v>20643.649411532599</v>
+        <v>20644</v>
       </c>
       <c r="E349" t="s">
         <v>13</v>
@@ -10097,7 +10097,7 @@
         <v>9</v>
       </c>
       <c r="D350">
-        <v>20230.5340083954</v>
+        <v>20231</v>
       </c>
       <c r="E350" t="s">
         <v>13</v>
@@ -10123,7 +10123,7 @@
         <v>9</v>
       </c>
       <c r="D351">
-        <v>23097.090277596399</v>
+        <v>23097</v>
       </c>
       <c r="E351" t="s">
         <v>13</v>
@@ -10149,7 +10149,7 @@
         <v>9</v>
       </c>
       <c r="D352">
-        <v>24070.790151983201</v>
+        <v>24071</v>
       </c>
       <c r="E352" t="s">
         <v>13</v>
@@ -10175,7 +10175,7 @@
         <v>9</v>
       </c>
       <c r="D353">
-        <v>25358.619342691902</v>
+        <v>25359</v>
       </c>
       <c r="E353" t="s">
         <v>13</v>
@@ -10201,7 +10201,7 @@
         <v>9</v>
       </c>
       <c r="D354">
-        <v>25372.760212236899</v>
+        <v>25373</v>
       </c>
       <c r="E354" t="s">
         <v>13</v>
@@ -10227,7 +10227,7 @@
         <v>9</v>
       </c>
       <c r="D355">
-        <v>24339.466673338899</v>
+        <v>24339</v>
       </c>
       <c r="E355" t="s">
         <v>13</v>
@@ -10253,7 +10253,7 @@
         <v>9</v>
       </c>
       <c r="D356">
-        <v>21098.177361194499</v>
+        <v>21098</v>
       </c>
       <c r="E356" t="s">
         <v>13</v>
@@ -10279,7 +10279,7 @@
         <v>9</v>
       </c>
       <c r="D357">
-        <v>16972.0736403749</v>
+        <v>16972</v>
       </c>
       <c r="E357" t="s">
         <v>13</v>
@@ -10305,7 +10305,7 @@
         <v>9</v>
       </c>
       <c r="D358">
-        <v>14104.5073090635</v>
+        <v>14105</v>
       </c>
       <c r="E358" t="s">
         <v>13</v>
@@ -10331,7 +10331,7 @@
         <v>9</v>
       </c>
       <c r="D359">
-        <v>9600.6403589694492</v>
+        <v>9601</v>
       </c>
       <c r="E359" t="s">
         <v>13</v>
@@ -10357,7 +10357,7 @@
         <v>9</v>
       </c>
       <c r="D360">
-        <v>6255.3146494579396</v>
+        <v>6255</v>
       </c>
       <c r="E360" t="s">
         <v>13</v>
@@ -10383,7 +10383,7 @@
         <v>9</v>
       </c>
       <c r="D361">
-        <v>6580.5546489937797</v>
+        <v>6581</v>
       </c>
       <c r="E361" t="s">
         <v>13</v>
@@ -10409,7 +10409,7 @@
         <v>9</v>
       </c>
       <c r="D362">
-        <v>8760.7411719190895</v>
+        <v>8761</v>
       </c>
       <c r="E362" t="s">
         <v>13</v>
@@ -10435,7 +10435,7 @@
         <v>9</v>
       </c>
       <c r="D363">
-        <v>8833.6629481477794</v>
+        <v>8834</v>
       </c>
       <c r="E363" t="s">
         <v>13</v>
@@ -10461,7 +10461,7 @@
         <v>9</v>
       </c>
       <c r="D364">
-        <v>9178.0157803388192</v>
+        <v>9178</v>
       </c>
       <c r="E364" t="s">
         <v>13</v>
@@ -10487,7 +10487,7 @@
         <v>9</v>
       </c>
       <c r="D365">
-        <v>8704.0242348523298</v>
+        <v>8704</v>
       </c>
       <c r="E365" t="s">
         <v>13</v>
@@ -10513,7 +10513,7 @@
         <v>9</v>
       </c>
       <c r="D366">
-        <v>8610.8464096712196</v>
+        <v>8611</v>
       </c>
       <c r="E366" t="s">
         <v>13</v>
@@ -10539,7 +10539,7 @@
         <v>9</v>
       </c>
       <c r="D367">
-        <v>9408.9347383963395</v>
+        <v>9409</v>
       </c>
       <c r="E367" t="s">
         <v>13</v>
@@ -10565,7 +10565,7 @@
         <v>9</v>
       </c>
       <c r="D368">
-        <v>8968.36567368133</v>
+        <v>8968</v>
       </c>
       <c r="E368" t="s">
         <v>13</v>
@@ -10591,7 +10591,7 @@
         <v>9</v>
       </c>
       <c r="D369">
-        <v>8743.5235303095305</v>
+        <v>8744</v>
       </c>
       <c r="E369" t="s">
         <v>13</v>
@@ -10617,7 +10617,7 @@
         <v>9</v>
       </c>
       <c r="D370">
-        <v>8296.8776509088002</v>
+        <v>8297</v>
       </c>
       <c r="E370" t="s">
         <v>13</v>
@@ -10643,7 +10643,7 @@
         <v>9</v>
       </c>
       <c r="D371">
-        <v>8705.0370372999496</v>
+        <v>8705</v>
       </c>
       <c r="E371" t="s">
         <v>13</v>
@@ -10669,7 +10669,7 @@
         <v>9</v>
       </c>
       <c r="D372">
-        <v>9051.4154743862291</v>
+        <v>9051</v>
       </c>
       <c r="E372" t="s">
         <v>13</v>
@@ -10695,7 +10695,7 @@
         <v>9</v>
       </c>
       <c r="D373">
-        <v>10061.179514664</v>
+        <v>10061</v>
       </c>
       <c r="E373" t="s">
         <v>13</v>
@@ -10721,7 +10721,7 @@
         <v>9</v>
       </c>
       <c r="D374">
-        <v>9739.1083363206799</v>
+        <v>9739</v>
       </c>
       <c r="E374" t="s">
         <v>13</v>
@@ -10747,7 +10747,7 @@
         <v>9</v>
       </c>
       <c r="D375">
-        <v>8793.1508502429497</v>
+        <v>8793</v>
       </c>
       <c r="E375" t="s">
         <v>13</v>
@@ -10773,7 +10773,7 @@
         <v>9</v>
       </c>
       <c r="D376">
-        <v>7222.2942539832302</v>
+        <v>7222</v>
       </c>
       <c r="E376" t="s">
         <v>13</v>
@@ -10799,7 +10799,7 @@
         <v>9</v>
       </c>
       <c r="D377">
-        <v>5247.3294811228598</v>
+        <v>5247</v>
       </c>
       <c r="E377" t="s">
         <v>13</v>
@@ -10825,7 +10825,7 @@
         <v>9</v>
       </c>
       <c r="D378">
-        <v>3494.1684442914202</v>
+        <v>3494</v>
       </c>
       <c r="E378" t="s">
         <v>13</v>
@@ -10851,7 +10851,7 @@
         <v>9</v>
       </c>
       <c r="D379">
-        <v>4349.9865125309198</v>
+        <v>4350</v>
       </c>
       <c r="E379" t="s">
         <v>13</v>
@@ -10877,7 +10877,7 @@
         <v>9</v>
       </c>
       <c r="D380">
-        <v>1521.98168325245</v>
+        <v>1522</v>
       </c>
       <c r="E380" t="s">
         <v>10</v>
@@ -10903,7 +10903,7 @@
         <v>9</v>
       </c>
       <c r="D381">
-        <v>1717.7803878618499</v>
+        <v>1718</v>
       </c>
       <c r="E381" t="s">
         <v>10</v>
@@ -10929,7 +10929,7 @@
         <v>9</v>
       </c>
       <c r="D382">
-        <v>2111.3963404271299</v>
+        <v>2111</v>
       </c>
       <c r="E382" t="s">
         <v>10</v>
@@ -10955,7 +10955,7 @@
         <v>9</v>
       </c>
       <c r="D383">
-        <v>2080.1089185565602</v>
+        <v>2080</v>
       </c>
       <c r="E383" t="s">
         <v>10</v>
@@ -10981,7 +10981,7 @@
         <v>9</v>
       </c>
       <c r="D384">
-        <v>1737.9658213267301</v>
+        <v>1738</v>
       </c>
       <c r="E384" t="s">
         <v>10</v>
@@ -11007,7 +11007,7 @@
         <v>9</v>
       </c>
       <c r="D385">
-        <v>1618.8717638839</v>
+        <v>1619</v>
       </c>
       <c r="E385" t="s">
         <v>10</v>
@@ -11033,7 +11033,7 @@
         <v>9</v>
       </c>
       <c r="D386">
-        <v>1392.7949090771699</v>
+        <v>1393</v>
       </c>
       <c r="E386" t="s">
         <v>10</v>
@@ -11059,7 +11059,7 @@
         <v>9</v>
       </c>
       <c r="D387">
-        <v>1529.04658496516</v>
+        <v>1529</v>
       </c>
       <c r="E387" t="s">
         <v>10</v>
@@ -11085,7 +11085,7 @@
         <v>9</v>
       </c>
       <c r="D388">
-        <v>1596.66778707253</v>
+        <v>1597</v>
       </c>
       <c r="E388" t="s">
         <v>10</v>
@@ -11111,7 +11111,7 @@
         <v>9</v>
       </c>
       <c r="D389">
-        <v>1862.10623713578</v>
+        <v>1862</v>
       </c>
       <c r="E389" t="s">
         <v>10</v>
@@ -11137,7 +11137,7 @@
         <v>9</v>
       </c>
       <c r="D390">
-        <v>1882.2916706006699</v>
+        <v>1882</v>
       </c>
       <c r="E390" t="s">
         <v>10</v>
@@ -11163,7 +11163,7 @@
         <v>9</v>
       </c>
       <c r="D391">
-        <v>1926.69962422342</v>
+        <v>1927</v>
       </c>
       <c r="E391" t="s">
         <v>10</v>
@@ -11189,7 +11189,7 @@
         <v>9</v>
       </c>
       <c r="D392">
-        <v>1648.1406424079901</v>
+        <v>1648</v>
       </c>
       <c r="E392" t="s">
         <v>10</v>
@@ -11215,7 +11215,7 @@
         <v>9</v>
       </c>
       <c r="D393">
-        <v>1362.5167588798399</v>
+        <v>1363</v>
       </c>
       <c r="E393" t="s">
         <v>10</v>
@@ -11241,7 +11241,7 @@
         <v>9</v>
       </c>
       <c r="D394">
-        <v>1082.9485053911601</v>
+        <v>1083</v>
       </c>
       <c r="E394" t="s">
         <v>10</v>
@@ -11267,7 +11267,7 @@
         <v>9</v>
       </c>
       <c r="D395">
-        <v>844.76039050550401</v>
+        <v>845</v>
       </c>
       <c r="E395" t="s">
         <v>10</v>
@@ -11293,7 +11293,7 @@
         <v>9</v>
       </c>
       <c r="D396">
-        <v>467.29278471212399</v>
+        <v>467</v>
       </c>
       <c r="E396" t="s">
         <v>10</v>
@@ -11319,7 +11319,7 @@
         <v>9</v>
       </c>
       <c r="D397">
-        <v>330.031837150895</v>
+        <v>330</v>
       </c>
       <c r="E397" t="s">
         <v>10</v>
@@ -11345,7 +11345,7 @@
         <v>9</v>
       </c>
       <c r="D398">
-        <v>159236.09919233099</v>
+        <v>159236</v>
       </c>
       <c r="E398" t="s">
         <v>10</v>
@@ -11371,7 +11371,7 @@
         <v>9</v>
       </c>
       <c r="D399">
-        <v>159803.69584555199</v>
+        <v>159804</v>
       </c>
       <c r="E399" t="s">
         <v>10</v>
@@ -11397,7 +11397,7 @@
         <v>9</v>
       </c>
       <c r="D400">
-        <v>161032.63016005899</v>
+        <v>161033</v>
       </c>
       <c r="E400" t="s">
         <v>10</v>
@@ -11423,7 +11423,7 @@
         <v>9</v>
       </c>
       <c r="D401">
-        <v>158025.70705524299</v>
+        <v>158026</v>
       </c>
       <c r="E401" t="s">
         <v>10</v>
@@ -11449,7 +11449,7 @@
         <v>9</v>
       </c>
       <c r="D402">
-        <v>163202.064918107</v>
+        <v>163202</v>
       </c>
       <c r="E402" t="s">
         <v>10</v>
@@ -11475,7 +11475,7 @@
         <v>9</v>
       </c>
       <c r="D403">
-        <v>218005.530522527</v>
+        <v>218006</v>
       </c>
       <c r="E403" t="s">
         <v>10</v>
@@ -11501,7 +11501,7 @@
         <v>9</v>
       </c>
       <c r="D404">
-        <v>212389.31100644101</v>
+        <v>212389</v>
       </c>
       <c r="E404" t="s">
         <v>10</v>
@@ -11527,7 +11527,7 @@
         <v>9</v>
       </c>
       <c r="D405">
-        <v>188831.47459532999</v>
+        <v>188831</v>
       </c>
       <c r="E405" t="s">
         <v>10</v>
@@ -11553,7 +11553,7 @@
         <v>9</v>
       </c>
       <c r="D406">
-        <v>169193.24846644801</v>
+        <v>169193</v>
       </c>
       <c r="E406" t="s">
         <v>10</v>
@@ -11579,7 +11579,7 @@
         <v>9</v>
       </c>
       <c r="D407">
-        <v>160062.256208454</v>
+        <v>160062</v>
       </c>
       <c r="E407" t="s">
         <v>10</v>
@@ -11605,7 +11605,7 @@
         <v>9</v>
       </c>
       <c r="D408">
-        <v>157224.272942346</v>
+        <v>157224</v>
       </c>
       <c r="E408" t="s">
         <v>10</v>
@@ -11631,7 +11631,7 @@
         <v>9</v>
       </c>
       <c r="D409">
-        <v>159063.03886975101</v>
+        <v>159063</v>
       </c>
       <c r="E409" t="s">
         <v>10</v>
@@ -11657,7 +11657,7 @@
         <v>9</v>
       </c>
       <c r="D410">
-        <v>150478.01072465599</v>
+        <v>150478</v>
       </c>
       <c r="E410" t="s">
         <v>10</v>
@@ -11683,7 +11683,7 @@
         <v>9</v>
       </c>
       <c r="D411">
-        <v>120175.972337791</v>
+        <v>120176</v>
       </c>
       <c r="E411" t="s">
         <v>10</v>
@@ -11709,7 +11709,7 @@
         <v>9</v>
       </c>
       <c r="D412">
-        <v>92193.766370262994</v>
+        <v>92194</v>
       </c>
       <c r="E412" t="s">
         <v>10</v>
@@ -11735,7 +11735,7 @@
         <v>9</v>
       </c>
       <c r="D413">
-        <v>59193.8411689024</v>
+        <v>59194</v>
       </c>
       <c r="E413" t="s">
         <v>10</v>
@@ -11761,7 +11761,7 @@
         <v>9</v>
       </c>
       <c r="D414">
-        <v>37750.843104550098</v>
+        <v>37751</v>
       </c>
       <c r="E414" t="s">
         <v>10</v>
@@ -11787,7 +11787,7 @@
         <v>9</v>
       </c>
       <c r="D415">
-        <v>36258.197822303497</v>
+        <v>36258</v>
       </c>
       <c r="E415" t="s">
         <v>10</v>
@@ -11813,7 +11813,7 @@
         <v>9</v>
       </c>
       <c r="D416">
-        <v>2825.3700963310198</v>
+        <v>2825</v>
       </c>
       <c r="E416" t="s">
         <v>10</v>
@@ -11839,7 +11839,7 @@
         <v>9</v>
       </c>
       <c r="D417">
-        <v>3135.9978232435501</v>
+        <v>3136</v>
       </c>
       <c r="E417" t="s">
         <v>10</v>
@@ -11865,7 +11865,7 @@
         <v>9</v>
       </c>
       <c r="D418">
-        <v>3064.0932568286098</v>
+        <v>3064</v>
       </c>
       <c r="E418" t="s">
         <v>10</v>
@@ -11891,7 +11891,7 @@
         <v>9</v>
       </c>
       <c r="D419">
-        <v>4402.4769196986899</v>
+        <v>4402</v>
       </c>
       <c r="E419" t="s">
         <v>10</v>
@@ -11917,7 +11917,7 @@
         <v>9</v>
       </c>
       <c r="D420">
-        <v>7057.19351173825</v>
+        <v>7057</v>
       </c>
       <c r="E420" t="s">
         <v>10</v>
@@ -11943,7 +11943,7 @@
         <v>9</v>
       </c>
       <c r="D421">
-        <v>3594.2695931947701</v>
+        <v>3594</v>
       </c>
       <c r="E421" t="s">
         <v>10</v>
@@ -11969,7 +11969,7 @@
         <v>9</v>
       </c>
       <c r="D422">
-        <v>3159.96601204853</v>
+        <v>3160</v>
       </c>
       <c r="E422" t="s">
         <v>10</v>
@@ -11995,7 +11995,7 @@
         <v>9</v>
       </c>
       <c r="D423">
-        <v>3008.4870588010599</v>
+        <v>3008</v>
       </c>
       <c r="E423" t="s">
         <v>10</v>
@@ -12021,7 +12021,7 @@
         <v>9</v>
       </c>
       <c r="D424">
-        <v>2784.14481158645</v>
+        <v>2784</v>
       </c>
       <c r="E424" t="s">
         <v>10</v>
@@ -12047,7 +12047,7 @@
         <v>9</v>
       </c>
       <c r="D425">
-        <v>2593.3580286988099</v>
+        <v>2593</v>
       </c>
       <c r="E425" t="s">
         <v>10</v>
@@ -12073,7 +12073,7 @@
         <v>9</v>
       </c>
       <c r="D426">
-        <v>2631.70713078678</v>
+        <v>2632</v>
       </c>
       <c r="E426" t="s">
         <v>10</v>
@@ -12099,7 +12099,7 @@
         <v>9</v>
       </c>
       <c r="D427">
-        <v>2818.6590034656201</v>
+        <v>2819</v>
       </c>
       <c r="E427" t="s">
         <v>10</v>
@@ -12125,7 +12125,7 @@
         <v>9</v>
       </c>
       <c r="D428">
-        <v>2729.4973411111</v>
+        <v>2729</v>
       </c>
       <c r="E428" t="s">
         <v>10</v>
@@ -12151,7 +12151,7 @@
         <v>9</v>
       </c>
       <c r="D429">
-        <v>2111.11806994262</v>
+        <v>2111</v>
       </c>
       <c r="E429" t="s">
         <v>10</v>
@@ -12177,7 +12177,7 @@
         <v>9</v>
       </c>
       <c r="D430">
-        <v>1624.0844734254299</v>
+        <v>1624</v>
       </c>
       <c r="E430" t="s">
         <v>10</v>
@@ -12203,7 +12203,7 @@
         <v>9</v>
       </c>
       <c r="D431">
-        <v>1016.25120533114</v>
+        <v>1016</v>
       </c>
       <c r="E431" t="s">
         <v>10</v>
@@ -12229,7 +12229,7 @@
         <v>9</v>
       </c>
       <c r="D432">
-        <v>651.93473549545001</v>
+        <v>652</v>
       </c>
       <c r="E432" t="s">
         <v>10</v>
@@ -12255,7 +12255,7 @@
         <v>9</v>
       </c>
       <c r="D433">
-        <v>588.65871705030395</v>
+        <v>589</v>
       </c>
       <c r="E433" t="s">
         <v>10</v>
@@ -12281,7 +12281,7 @@
         <v>9</v>
       </c>
       <c r="D434">
-        <v>27717.998315170698</v>
+        <v>27718</v>
       </c>
       <c r="E434" t="s">
         <v>10</v>
@@ -12307,7 +12307,7 @@
         <v>9</v>
       </c>
       <c r="D435">
-        <v>29205.518377038399</v>
+        <v>29206</v>
       </c>
       <c r="E435" t="s">
         <v>10</v>
@@ -12333,7 +12333,7 @@
         <v>9</v>
       </c>
       <c r="D436">
-        <v>30659.554017322502</v>
+        <v>30660</v>
       </c>
       <c r="E436" t="s">
         <v>10</v>
@@ -12359,7 +12359,7 @@
         <v>9</v>
       </c>
       <c r="D437">
-        <v>30934.532146085199</v>
+        <v>30935</v>
       </c>
       <c r="E437" t="s">
         <v>10</v>
@@ -12385,7 +12385,7 @@
         <v>9</v>
       </c>
       <c r="D438">
-        <v>28183.736179015999</v>
+        <v>28184</v>
       </c>
       <c r="E438" t="s">
         <v>10</v>
@@ -12411,7 +12411,7 @@
         <v>9</v>
       </c>
       <c r="D439">
-        <v>29635.742460416299</v>
+        <v>29636</v>
       </c>
       <c r="E439" t="s">
         <v>10</v>
@@ -12437,7 +12437,7 @@
         <v>9</v>
       </c>
       <c r="D440">
-        <v>29906.661871411299</v>
+        <v>29907</v>
       </c>
       <c r="E440" t="s">
         <v>10</v>
@@ -12463,7 +12463,7 @@
         <v>9</v>
       </c>
       <c r="D441">
-        <v>32042.5620966715</v>
+        <v>32043</v>
       </c>
       <c r="E441" t="s">
         <v>10</v>
@@ -12489,7 +12489,7 @@
         <v>9</v>
       </c>
       <c r="D442">
-        <v>29972.616035136602</v>
+        <v>29973</v>
       </c>
       <c r="E442" t="s">
         <v>10</v>
@@ -12515,7 +12515,7 @@
         <v>9</v>
       </c>
       <c r="D443">
-        <v>28920.393453856399</v>
+        <v>28920</v>
       </c>
       <c r="E443" t="s">
         <v>10</v>
@@ -12541,7 +12541,7 @@
         <v>9</v>
       </c>
       <c r="D444">
-        <v>30152.214296358001</v>
+        <v>30152</v>
       </c>
       <c r="E444" t="s">
         <v>10</v>
@@ -12567,7 +12567,7 @@
         <v>9</v>
       </c>
       <c r="D445">
-        <v>32128.809849235498</v>
+        <v>32129</v>
       </c>
       <c r="E445" t="s">
         <v>10</v>
@@ -12593,7 +12593,7 @@
         <v>9</v>
       </c>
       <c r="D446">
-        <v>30426.1777456788</v>
+        <v>30426</v>
       </c>
       <c r="E446" t="s">
         <v>10</v>
@@ -12619,7 +12619,7 @@
         <v>9</v>
       </c>
       <c r="D447">
-        <v>24752.0903064126</v>
+        <v>24752</v>
       </c>
       <c r="E447" t="s">
         <v>10</v>
@@ -12645,7 +12645,7 @@
         <v>9</v>
       </c>
       <c r="D448">
-        <v>18684.307243677998</v>
+        <v>18684</v>
       </c>
       <c r="E448" t="s">
         <v>10</v>
@@ -12671,7 +12671,7 @@
         <v>9</v>
       </c>
       <c r="D449">
-        <v>12006.7018363442</v>
+        <v>12007</v>
       </c>
       <c r="E449" t="s">
         <v>10</v>
@@ -12697,7 +12697,7 @@
         <v>9</v>
       </c>
       <c r="D450">
-        <v>7128.1230795502597</v>
+        <v>7128</v>
       </c>
       <c r="E450" t="s">
         <v>10</v>
@@ -12723,7 +12723,7 @@
         <v>9</v>
       </c>
       <c r="D451">
-        <v>6386.3924075002597</v>
+        <v>6386</v>
       </c>
       <c r="E451" t="s">
         <v>10</v>
@@ -12749,7 +12749,7 @@
         <v>9</v>
       </c>
       <c r="D452">
-        <v>1589.6939027497399</v>
+        <v>1590</v>
       </c>
       <c r="E452" t="s">
         <v>10</v>
@@ -12775,7 +12775,7 @@
         <v>9</v>
       </c>
       <c r="D453">
-        <v>1845.03333790643</v>
+        <v>1845</v>
       </c>
       <c r="E453" t="s">
         <v>10</v>
@@ -12801,7 +12801,7 @@
         <v>9</v>
       </c>
       <c r="D454">
-        <v>2012.85724085216</v>
+        <v>2013</v>
       </c>
       <c r="E454" t="s">
         <v>10</v>
@@ -12827,7 +12827,7 @@
         <v>9</v>
       </c>
       <c r="D455">
-        <v>1910.9273856888001</v>
+        <v>1911</v>
       </c>
       <c r="E455" t="s">
         <v>10</v>
@@ -12853,7 +12853,7 @@
         <v>9</v>
       </c>
       <c r="D456">
-        <v>1490.8528310761801</v>
+        <v>1491</v>
       </c>
       <c r="E456" t="s">
         <v>10</v>
@@ -12879,7 +12879,7 @@
         <v>9</v>
       </c>
       <c r="D457">
-        <v>1628.81849362052</v>
+        <v>1629</v>
       </c>
       <c r="E457" t="s">
         <v>10</v>
@@ -12905,7 +12905,7 @@
         <v>9</v>
       </c>
       <c r="D458">
-        <v>1625.7297101307199</v>
+        <v>1626</v>
       </c>
       <c r="E458" t="s">
         <v>10</v>
@@ -12931,7 +12931,7 @@
         <v>9</v>
       </c>
       <c r="D459">
-        <v>1801.7903690492501</v>
+        <v>1802</v>
       </c>
       <c r="E459" t="s">
         <v>10</v>
@@ -12957,7 +12957,7 @@
         <v>9</v>
       </c>
       <c r="D460">
-        <v>1846.0629324030299</v>
+        <v>1846</v>
       </c>
       <c r="E460" t="s">
         <v>10</v>
@@ -12983,7 +12983,7 @@
         <v>9</v>
       </c>
       <c r="D461">
-        <v>1688.5349744232899</v>
+        <v>1689</v>
       </c>
       <c r="E461" t="s">
         <v>10</v>
@@ -13009,7 +13009,7 @@
         <v>9</v>
       </c>
       <c r="D462">
-        <v>1783.2576681104599</v>
+        <v>1783</v>
       </c>
       <c r="E462" t="s">
         <v>10</v>
@@ -13035,7 +13035,7 @@
         <v>9</v>
       </c>
       <c r="D463">
-        <v>1766.78415616486</v>
+        <v>1767</v>
       </c>
       <c r="E463" t="s">
         <v>10</v>
@@ -13061,7 +13061,7 @@
         <v>9</v>
       </c>
       <c r="D464">
-        <v>1563.9540403347501</v>
+        <v>1564</v>
       </c>
       <c r="E464" t="s">
         <v>10</v>
@@ -13087,7 +13087,7 @@
         <v>9</v>
       </c>
       <c r="D465">
-        <v>1231.39501793308</v>
+        <v>1231</v>
       </c>
       <c r="E465" t="s">
         <v>10</v>
@@ -13113,7 +13113,7 @@
         <v>9</v>
       </c>
       <c r="D466">
-        <v>1014.15057915057</v>
+        <v>1014</v>
       </c>
       <c r="E466" t="s">
         <v>10</v>
@@ -13139,7 +13139,7 @@
         <v>9</v>
       </c>
       <c r="D467">
-        <v>637.31899339513495</v>
+        <v>637</v>
       </c>
       <c r="E467" t="s">
         <v>10</v>
@@ -13165,7 +13165,7 @@
         <v>9</v>
       </c>
       <c r="D468">
-        <v>402.57144817043201</v>
+        <v>403</v>
       </c>
       <c r="E468" t="s">
         <v>10</v>
@@ -13191,7 +13191,7 @@
         <v>9</v>
       </c>
       <c r="D469">
-        <v>277.99051408188399</v>
+        <v>278</v>
       </c>
       <c r="E469" t="s">
         <v>10</v>
@@ -13217,7 +13217,7 @@
         <v>9</v>
       </c>
       <c r="D470">
-        <v>16174.769080588099</v>
+        <v>16175</v>
       </c>
       <c r="E470" t="s">
         <v>10</v>
@@ -13243,7 +13243,7 @@
         <v>9</v>
       </c>
       <c r="D471">
-        <v>17401.793727641001</v>
+        <v>17402</v>
       </c>
       <c r="E471" t="s">
         <v>10</v>
@@ -13269,7 +13269,7 @@
         <v>9</v>
       </c>
       <c r="D472">
-        <v>19295.278317590299</v>
+        <v>19295</v>
       </c>
       <c r="E472" t="s">
         <v>10</v>
@@ -13295,7 +13295,7 @@
         <v>9</v>
       </c>
       <c r="D473">
-        <v>19543.014885285102</v>
+        <v>19543</v>
       </c>
       <c r="E473" t="s">
         <v>10</v>
@@ -13321,7 +13321,7 @@
         <v>9</v>
       </c>
       <c r="D474">
-        <v>16708.1313380957</v>
+        <v>16708</v>
       </c>
       <c r="E474" t="s">
         <v>10</v>
@@ -13347,7 +13347,7 @@
         <v>9</v>
       </c>
       <c r="D475">
-        <v>16017.3834964056</v>
+        <v>16017</v>
       </c>
       <c r="E475" t="s">
         <v>10</v>
@@ -13373,7 +13373,7 @@
         <v>9</v>
       </c>
       <c r="D476">
-        <v>15648.207434742801</v>
+        <v>15648</v>
       </c>
       <c r="E476" t="s">
         <v>10</v>
@@ -13399,7 +13399,7 @@
         <v>9</v>
       </c>
       <c r="D477">
-        <v>17251.208755120599</v>
+        <v>17251</v>
       </c>
       <c r="E477" t="s">
         <v>10</v>
@@ -13425,7 +13425,7 @@
         <v>9</v>
       </c>
       <c r="D478">
-        <v>17234.692983941</v>
+        <v>17235</v>
       </c>
       <c r="E478" t="s">
         <v>10</v>
@@ -13451,7 +13451,7 @@
         <v>9</v>
       </c>
       <c r="D479">
-        <v>17436.768301903801</v>
+        <v>17437</v>
       </c>
       <c r="E479" t="s">
         <v>10</v>
@@ -13477,7 +13477,7 @@
         <v>9</v>
       </c>
       <c r="D480">
-        <v>17616.4987529764</v>
+        <v>17616</v>
       </c>
       <c r="E480" t="s">
         <v>10</v>
@@ -13503,7 +13503,7 @@
         <v>9</v>
       </c>
       <c r="D481">
-        <v>17590.267822279398</v>
+        <v>17590</v>
       </c>
       <c r="E481" t="s">
         <v>10</v>
@@ -13529,7 +13529,7 @@
         <v>9</v>
       </c>
       <c r="D482">
-        <v>15282.917436887001</v>
+        <v>15283</v>
       </c>
       <c r="E482" t="s">
         <v>10</v>
@@ -13555,7 +13555,7 @@
         <v>9</v>
       </c>
       <c r="D483">
-        <v>12093.430567310999</v>
+        <v>12093</v>
       </c>
       <c r="E483" t="s">
         <v>10</v>
@@ -13581,7 +13581,7 @@
         <v>9</v>
       </c>
       <c r="D484">
-        <v>9318.7810091297906</v>
+        <v>9319</v>
       </c>
       <c r="E484" t="s">
         <v>10</v>
@@ -13607,7 +13607,7 @@
         <v>9</v>
       </c>
       <c r="D485">
-        <v>6021.4558689101796</v>
+        <v>6021</v>
       </c>
       <c r="E485" t="s">
         <v>10</v>
@@ -13633,7 +13633,7 @@
         <v>9</v>
       </c>
       <c r="D486">
-        <v>3618.8969202469202</v>
+        <v>3619</v>
       </c>
       <c r="E486" t="s">
         <v>10</v>
@@ -13659,7 +13659,7 @@
         <v>9</v>
       </c>
       <c r="D487">
-        <v>3047.6455406213599</v>
+        <v>3048</v>
       </c>
       <c r="E487" t="s">
         <v>10</v>
@@ -13685,7 +13685,7 @@
         <v>9</v>
       </c>
       <c r="D488">
-        <v>3191.6723235439899</v>
+        <v>3192</v>
       </c>
       <c r="E488" t="s">
         <v>10</v>
@@ -13711,7 +13711,7 @@
         <v>9</v>
       </c>
       <c r="D489">
-        <v>3262.7519422557698</v>
+        <v>3263</v>
       </c>
       <c r="E489" t="s">
         <v>10</v>
@@ -13737,7 +13737,7 @@
         <v>9</v>
       </c>
       <c r="D490">
-        <v>3580.6357926056498</v>
+        <v>3581</v>
       </c>
       <c r="E490" t="s">
         <v>10</v>
@@ -13763,7 +13763,7 @@
         <v>9</v>
       </c>
       <c r="D491">
-        <v>4032.7811449666601</v>
+        <v>4033</v>
       </c>
       <c r="E491" t="s">
         <v>10</v>
@@ -13789,7 +13789,7 @@
         <v>9</v>
       </c>
       <c r="D492">
-        <v>4006.1262879497399</v>
+        <v>4006</v>
       </c>
       <c r="E492" t="s">
         <v>10</v>
@@ -13815,7 +13815,7 @@
         <v>9</v>
       </c>
       <c r="D493">
-        <v>3607.2906496225601</v>
+        <v>3607</v>
       </c>
       <c r="E493" t="s">
         <v>10</v>
@@ -13841,7 +13841,7 @@
         <v>9</v>
       </c>
       <c r="D494">
-        <v>3114.6694032729001</v>
+        <v>3115</v>
       </c>
       <c r="E494" t="s">
         <v>10</v>
@@ -13867,7 +13867,7 @@
         <v>9</v>
       </c>
       <c r="D495">
-        <v>3182.78737120502</v>
+        <v>3183</v>
       </c>
       <c r="E495" t="s">
         <v>10</v>
@@ -13893,7 +13893,7 @@
         <v>9</v>
       </c>
       <c r="D496">
-        <v>3101.8355832277198</v>
+        <v>3102</v>
       </c>
       <c r="E496" t="s">
         <v>10</v>
@@ -13919,7 +13919,7 @@
         <v>9</v>
       </c>
       <c r="D497">
-        <v>3189.69788969089</v>
+        <v>3190</v>
       </c>
       <c r="E497" t="s">
         <v>10</v>
@@ -13945,7 +13945,7 @@
         <v>9</v>
       </c>
       <c r="D498">
-        <v>3252.8797729902399</v>
+        <v>3253</v>
       </c>
       <c r="E498" t="s">
         <v>10</v>
@@ -13971,7 +13971,7 @@
         <v>9</v>
       </c>
       <c r="D499">
-        <v>3566.81475563391</v>
+        <v>3567</v>
       </c>
       <c r="E499" t="s">
         <v>10</v>
@@ -13997,7 +13997,7 @@
         <v>9</v>
       </c>
       <c r="D500">
-        <v>3374.3074549561902</v>
+        <v>3374</v>
       </c>
       <c r="E500" t="s">
         <v>10</v>
@@ -14023,7 +14023,7 @@
         <v>9</v>
       </c>
       <c r="D501">
-        <v>2911.3027164031</v>
+        <v>2911</v>
       </c>
       <c r="E501" t="s">
         <v>10</v>
@@ -14049,7 +14049,7 @@
         <v>9</v>
       </c>
       <c r="D502">
-        <v>2120.5419582346099</v>
+        <v>2121</v>
       </c>
       <c r="E502" t="s">
         <v>10</v>
@@ -14075,7 +14075,7 @@
         <v>9</v>
       </c>
       <c r="D503">
-        <v>1521.3012838172899</v>
+        <v>1521</v>
       </c>
       <c r="E503" t="s">
         <v>10</v>
@@ -14101,7 +14101,7 @@
         <v>9</v>
       </c>
       <c r="D504">
-        <v>960.562069535511</v>
+        <v>961</v>
       </c>
       <c r="E504" t="s">
         <v>10</v>
@@ -14127,7 +14127,7 @@
         <v>9</v>
       </c>
       <c r="D505">
-        <v>1083.96418535456</v>
+        <v>1084</v>
       </c>
       <c r="E505" t="s">
         <v>10</v>
@@ -14153,7 +14153,7 @@
         <v>9</v>
       </c>
       <c r="D506">
-        <v>4232.0598182348504</v>
+        <v>4232</v>
       </c>
       <c r="E506" t="s">
         <v>10</v>
@@ -14179,7 +14179,7 @@
         <v>9</v>
       </c>
       <c r="D507">
-        <v>5289.8217197070799</v>
+        <v>5290</v>
       </c>
       <c r="E507" t="s">
         <v>10</v>
@@ -14205,7 +14205,7 @@
         <v>9</v>
       </c>
       <c r="D508">
-        <v>5741.2684259813605</v>
+        <v>5741</v>
       </c>
       <c r="E508" t="s">
         <v>10</v>
@@ -14231,7 +14231,7 @@
         <v>9</v>
       </c>
       <c r="D509">
-        <v>5320.1880900842798</v>
+        <v>5320</v>
       </c>
       <c r="E509" t="s">
         <v>10</v>
@@ -14257,7 +14257,7 @@
         <v>9</v>
       </c>
       <c r="D510">
-        <v>3857.5412502494601</v>
+        <v>3858</v>
       </c>
       <c r="E510" t="s">
         <v>10</v>
@@ -14283,7 +14283,7 @@
         <v>9</v>
       </c>
       <c r="D511">
-        <v>3660.1598427977001</v>
+        <v>3660</v>
       </c>
       <c r="E511" t="s">
         <v>10</v>
@@ -14309,7 +14309,7 @@
         <v>9</v>
       </c>
       <c r="D512">
-        <v>4363.6474232026803</v>
+        <v>4364</v>
       </c>
       <c r="E512" t="s">
         <v>10</v>
@@ -14335,7 +14335,7 @@
         <v>9</v>
       </c>
       <c r="D513">
-        <v>5254.3942876003603</v>
+        <v>5254</v>
       </c>
       <c r="E513" t="s">
         <v>10</v>
@@ -14361,7 +14361,7 @@
         <v>9</v>
       </c>
       <c r="D514">
-        <v>5092.4403122553304</v>
+        <v>5092</v>
       </c>
       <c r="E514" t="s">
         <v>10</v>
@@ -14387,7 +14387,7 @@
         <v>9</v>
       </c>
       <c r="D515">
-        <v>5063.08615422404</v>
+        <v>5063</v>
       </c>
       <c r="E515" t="s">
         <v>10</v>
@@ -14413,7 +14413,7 @@
         <v>9</v>
       </c>
       <c r="D516">
-        <v>4520.5403368181796</v>
+        <v>4521</v>
       </c>
       <c r="E516" t="s">
         <v>10</v>
@@ -14439,7 +14439,7 @@
         <v>9</v>
       </c>
       <c r="D517">
-        <v>3726.9658576275301</v>
+        <v>3727</v>
       </c>
       <c r="E517" t="s">
         <v>10</v>
@@ -14465,7 +14465,7 @@
         <v>9</v>
       </c>
       <c r="D518">
-        <v>2913.14713151875</v>
+        <v>2913</v>
       </c>
       <c r="E518" t="s">
         <v>10</v>
@@ -14491,7 +14491,7 @@
         <v>9</v>
       </c>
       <c r="D519">
-        <v>2315.94184743394</v>
+        <v>2316</v>
       </c>
       <c r="E519" t="s">
         <v>10</v>
@@ -14517,7 +14517,7 @@
         <v>9</v>
       </c>
       <c r="D520">
-        <v>1753.15178310996</v>
+        <v>1753</v>
       </c>
       <c r="E520" t="s">
         <v>10</v>
@@ -14543,7 +14543,7 @@
         <v>9</v>
       </c>
       <c r="D521">
-        <v>1176.19074594329</v>
+        <v>1176</v>
       </c>
       <c r="E521" t="s">
         <v>10</v>
@@ -14569,7 +14569,7 @@
         <v>9</v>
       </c>
       <c r="D522">
-        <v>593.15643470117698</v>
+        <v>593</v>
       </c>
       <c r="E522" t="s">
         <v>10</v>
@@ -14595,7 +14595,7 @@
         <v>9</v>
       </c>
       <c r="D523">
-        <v>515.21608406638097</v>
+        <v>515</v>
       </c>
       <c r="E523" t="s">
         <v>10</v>
@@ -14621,7 +14621,7 @@
         <v>49</v>
       </c>
       <c r="D524">
-        <v>4752.9325005595001</v>
+        <v>4753</v>
       </c>
       <c r="E524" t="s">
         <v>10</v>
@@ -14647,7 +14647,7 @@
         <v>49</v>
       </c>
       <c r="D525">
-        <v>5286.9026997420397</v>
+        <v>5287</v>
       </c>
       <c r="E525" t="s">
         <v>10</v>
@@ -14673,7 +14673,7 @@
         <v>49</v>
       </c>
       <c r="D526">
-        <v>5578.7931257877099</v>
+        <v>5579</v>
       </c>
       <c r="E526" t="s">
         <v>10</v>
@@ -14699,7 +14699,7 @@
         <v>49</v>
       </c>
       <c r="D527">
-        <v>6014.1382322107902</v>
+        <v>6014</v>
       </c>
       <c r="E527" t="s">
         <v>10</v>
@@ -14725,7 +14725,7 @@
         <v>49</v>
       </c>
       <c r="D528">
-        <v>5682.39928383806</v>
+        <v>5682</v>
       </c>
       <c r="E528" t="s">
         <v>10</v>
@@ -14751,7 +14751,7 @@
         <v>49</v>
       </c>
       <c r="D529">
-        <v>5776.0433113066401</v>
+        <v>5776</v>
       </c>
       <c r="E529" t="s">
         <v>10</v>
@@ -14777,7 +14777,7 @@
         <v>49</v>
       </c>
       <c r="D530">
-        <v>5482.1604591446103</v>
+        <v>5482</v>
       </c>
       <c r="E530" t="s">
         <v>10</v>
@@ -14803,7 +14803,7 @@
         <v>49</v>
       </c>
       <c r="D531">
-        <v>5344.68305711627</v>
+        <v>5345</v>
       </c>
       <c r="E531" t="s">
         <v>10</v>
@@ -14829,7 +14829,7 @@
         <v>49</v>
       </c>
       <c r="D532">
-        <v>5048.8077788378796</v>
+        <v>5049</v>
       </c>
       <c r="E532" t="s">
         <v>10</v>
@@ -14855,7 +14855,7 @@
         <v>49</v>
       </c>
       <c r="D533">
-        <v>5281.9216344511497</v>
+        <v>5282</v>
       </c>
       <c r="E533" t="s">
         <v>10</v>
@@ -14881,7 +14881,7 @@
         <v>49</v>
       </c>
       <c r="D534">
-        <v>5775.0470982484603</v>
+        <v>5775</v>
       </c>
       <c r="E534" t="s">
         <v>10</v>
@@ -14907,7 +14907,7 @@
         <v>49</v>
       </c>
       <c r="D535">
-        <v>6452.4719778084</v>
+        <v>6452</v>
       </c>
       <c r="E535" t="s">
         <v>10</v>
@@ -14933,7 +14933,7 @@
         <v>49</v>
       </c>
       <c r="D536">
-        <v>5573.8120604968299</v>
+        <v>5574</v>
       </c>
       <c r="E536" t="s">
         <v>10</v>
@@ -14959,7 +14959,7 @@
         <v>49</v>
       </c>
       <c r="D537">
-        <v>4272.7578065184798</v>
+        <v>4273</v>
       </c>
       <c r="E537" t="s">
         <v>10</v>
@@ -14985,7 +14985,7 @@
         <v>49</v>
       </c>
       <c r="D538">
-        <v>3062.35894083418</v>
+        <v>3062</v>
       </c>
       <c r="E538" t="s">
         <v>10</v>
@@ -15011,7 +15011,7 @@
         <v>49</v>
       </c>
       <c r="D539">
-        <v>1896.7896627678199</v>
+        <v>1897</v>
       </c>
       <c r="E539" t="s">
         <v>10</v>
@@ -15037,7 +15037,7 @@
         <v>49</v>
       </c>
       <c r="D540">
-        <v>1219.36478320788</v>
+        <v>1219</v>
       </c>
       <c r="E540" t="s">
         <v>10</v>
@@ -15063,7 +15063,7 @@
         <v>49</v>
       </c>
       <c r="D541">
-        <v>1009.16382793267</v>
+        <v>1009</v>
       </c>
       <c r="E541" t="s">
         <v>10</v>
@@ -15089,7 +15089,7 @@
         <v>9</v>
       </c>
       <c r="D542">
-        <v>20316.0194187052</v>
+        <v>20316</v>
       </c>
       <c r="E542" t="s">
         <v>10</v>
@@ -15115,7 +15115,7 @@
         <v>44</v>
       </c>
       <c r="D543">
-        <v>15103.689717486701</v>
+        <v>15104</v>
       </c>
       <c r="E543" t="s">
         <v>10</v>
@@ -15141,7 +15141,7 @@
         <v>9</v>
       </c>
       <c r="D544">
-        <v>23344.456053199199</v>
+        <v>23344</v>
       </c>
       <c r="E544" t="s">
         <v>10</v>
@@ -15167,7 +15167,7 @@
         <v>44</v>
       </c>
       <c r="D545">
-        <v>16213.578193170701</v>
+        <v>16214</v>
       </c>
       <c r="E545" t="s">
         <v>10</v>
@@ -15193,7 +15193,7 @@
         <v>9</v>
       </c>
       <c r="D546">
-        <v>25812.6421901375</v>
+        <v>25813</v>
       </c>
       <c r="E546" t="s">
         <v>10</v>
@@ -15219,7 +15219,7 @@
         <v>44</v>
       </c>
       <c r="D547">
-        <v>17115.8101153395</v>
+        <v>17116</v>
       </c>
       <c r="E547" t="s">
         <v>10</v>
@@ -15245,7 +15245,7 @@
         <v>9</v>
       </c>
       <c r="D548">
-        <v>29038.451476981401</v>
+        <v>29038</v>
       </c>
       <c r="E548" t="s">
         <v>10</v>
@@ -15271,7 +15271,7 @@
         <v>44</v>
       </c>
       <c r="D549">
-        <v>16936.7958450679</v>
+        <v>16937</v>
       </c>
       <c r="E549" t="s">
         <v>10</v>
@@ -15297,7 +15297,7 @@
         <v>9</v>
       </c>
       <c r="D550">
-        <v>27018.465738087802</v>
+        <v>27018</v>
       </c>
       <c r="E550" t="s">
         <v>10</v>
@@ -15323,7 +15323,7 @@
         <v>44</v>
       </c>
       <c r="D551">
-        <v>15379.8831630486</v>
+        <v>15380</v>
       </c>
       <c r="E551" t="s">
         <v>10</v>
@@ -15349,7 +15349,7 @@
         <v>9</v>
       </c>
       <c r="D552">
-        <v>22254.794535017401</v>
+        <v>22255</v>
       </c>
       <c r="E552" t="s">
         <v>10</v>
@@ -15375,7 +15375,7 @@
         <v>44</v>
       </c>
       <c r="D553">
-        <v>15799.2880248278</v>
+        <v>15799</v>
       </c>
       <c r="E553" t="s">
         <v>10</v>
@@ -15401,7 +15401,7 @@
         <v>9</v>
       </c>
       <c r="D554">
-        <v>19607.739431886999</v>
+        <v>19608</v>
       </c>
       <c r="E554" t="s">
         <v>10</v>
@@ -15427,7 +15427,7 @@
         <v>44</v>
       </c>
       <c r="D555">
-        <v>14635.183798718799</v>
+        <v>14635</v>
       </c>
       <c r="E555" t="s">
         <v>10</v>
@@ -15453,7 +15453,7 @@
         <v>9</v>
       </c>
       <c r="D556">
-        <v>21997.798893936801</v>
+        <v>21998</v>
       </c>
       <c r="E556" t="s">
         <v>10</v>
@@ -15479,7 +15479,7 @@
         <v>44</v>
       </c>
       <c r="D557">
-        <v>15507.750498956901</v>
+        <v>15508</v>
       </c>
       <c r="E557" t="s">
         <v>10</v>
@@ -15505,7 +15505,7 @@
         <v>9</v>
       </c>
       <c r="D558">
-        <v>22734.862392555999</v>
+        <v>22735</v>
       </c>
       <c r="E558" t="s">
         <v>10</v>
@@ -15531,7 +15531,7 @@
         <v>44</v>
       </c>
       <c r="D559">
-        <v>15219.281789147801</v>
+        <v>15219</v>
       </c>
       <c r="E559" t="s">
         <v>10</v>
@@ -15557,7 +15557,7 @@
         <v>9</v>
       </c>
       <c r="D560">
-        <v>23167.6430521357</v>
+        <v>23168</v>
       </c>
       <c r="E560" t="s">
         <v>10</v>
@@ -15583,7 +15583,7 @@
         <v>44</v>
       </c>
       <c r="D561">
-        <v>14717.0188937001</v>
+        <v>14717</v>
       </c>
       <c r="E561" t="s">
         <v>10</v>
@@ -15609,7 +15609,7 @@
         <v>9</v>
       </c>
       <c r="D562">
-        <v>24236.744919031102</v>
+        <v>24237</v>
       </c>
       <c r="E562" t="s">
         <v>10</v>
@@ -15635,7 +15635,7 @@
         <v>44</v>
       </c>
       <c r="D563">
-        <v>14780.441092310601</v>
+        <v>14780</v>
       </c>
       <c r="E563" t="s">
         <v>10</v>
@@ -15661,7 +15661,7 @@
         <v>9</v>
       </c>
       <c r="D564">
-        <v>25120.809924348399</v>
+        <v>25121</v>
       </c>
       <c r="E564" t="s">
         <v>10</v>
@@ -15687,7 +15687,7 @@
         <v>44</v>
       </c>
       <c r="D565">
-        <v>16193.1194194253</v>
+        <v>16193</v>
       </c>
       <c r="E565" t="s">
         <v>10</v>
@@ -15713,7 +15713,7 @@
         <v>9</v>
       </c>
       <c r="D566">
-        <v>22912.703376183799</v>
+        <v>22913</v>
       </c>
       <c r="E566" t="s">
         <v>10</v>
@@ -15739,7 +15739,7 @@
         <v>44</v>
       </c>
       <c r="D567">
-        <v>16179.8212164909</v>
+        <v>16180</v>
       </c>
       <c r="E567" t="s">
         <v>10</v>
@@ -15765,7 +15765,7 @@
         <v>9</v>
       </c>
       <c r="D568">
-        <v>17573.361937092799</v>
+        <v>17573</v>
       </c>
       <c r="E568" t="s">
         <v>10</v>
@@ -15791,7 +15791,7 @@
         <v>44</v>
       </c>
       <c r="D569">
-        <v>13285.9276702145</v>
+        <v>13286</v>
       </c>
       <c r="E569" t="s">
         <v>10</v>
@@ -15817,7 +15817,7 @@
         <v>9</v>
       </c>
       <c r="D570">
-        <v>13373.025179271101</v>
+        <v>13373</v>
       </c>
       <c r="E570" t="s">
         <v>10</v>
@@ -15843,7 +15843,7 @@
         <v>44</v>
       </c>
       <c r="D571">
-        <v>10200.744589419401</v>
+        <v>10201</v>
       </c>
       <c r="E571" t="s">
         <v>10</v>
@@ -15869,7 +15869,7 @@
         <v>9</v>
       </c>
       <c r="D572">
-        <v>8538.4231792625305</v>
+        <v>8538</v>
       </c>
       <c r="E572" t="s">
         <v>10</v>
@@ -15895,7 +15895,7 @@
         <v>44</v>
       </c>
       <c r="D573">
-        <v>6363.7015734835904</v>
+        <v>6364</v>
       </c>
       <c r="E573" t="s">
         <v>10</v>
@@ -15921,7 +15921,7 @@
         <v>9</v>
       </c>
       <c r="D574">
-        <v>5076.1779026244103</v>
+        <v>5076</v>
       </c>
       <c r="E574" t="s">
         <v>10</v>
@@ -15947,7 +15947,7 @@
         <v>44</v>
       </c>
       <c r="D575">
-        <v>3969.0021065932001</v>
+        <v>3969</v>
       </c>
       <c r="E575" t="s">
         <v>10</v>
@@ -15973,7 +15973,7 @@
         <v>9</v>
       </c>
       <c r="D576">
-        <v>4865.4414769383002</v>
+        <v>4865</v>
       </c>
       <c r="E576" t="s">
         <v>10</v>
@@ -15999,7 +15999,7 @@
         <v>44</v>
       </c>
       <c r="D577">
-        <v>3807.37779400513</v>
+        <v>3807</v>
       </c>
       <c r="E577" t="s">
         <v>10</v>
@@ -16025,7 +16025,7 @@
         <v>44</v>
       </c>
       <c r="D578">
-        <v>3395.0343533697601</v>
+        <v>3395</v>
       </c>
       <c r="E578" t="s">
         <v>10</v>
@@ -16051,7 +16051,7 @@
         <v>44</v>
       </c>
       <c r="D579">
-        <v>3348.9618123861501</v>
+        <v>3349</v>
       </c>
       <c r="E579" t="s">
         <v>10</v>
@@ -16077,7 +16077,7 @@
         <v>44</v>
       </c>
       <c r="D580">
-        <v>3440.0830601092898</v>
+        <v>3440</v>
       </c>
       <c r="E580" t="s">
         <v>10</v>
@@ -16103,7 +16103,7 @@
         <v>44</v>
       </c>
       <c r="D581">
-        <v>3224.0540346083699</v>
+        <v>3224</v>
       </c>
       <c r="E581" t="s">
         <v>10</v>
@@ -16129,7 +16129,7 @@
         <v>44</v>
       </c>
       <c r="D582">
-        <v>3834.25924408014</v>
+        <v>3834</v>
       </c>
       <c r="E582" t="s">
         <v>10</v>
@@ -16155,7 +16155,7 @@
         <v>44</v>
       </c>
       <c r="D583">
-        <v>4475.1794808743098</v>
+        <v>4475</v>
       </c>
       <c r="E583" t="s">
         <v>10</v>
@@ -16181,7 +16181,7 @@
         <v>44</v>
       </c>
       <c r="D584">
-        <v>4119.9089981785</v>
+        <v>4120</v>
       </c>
       <c r="E584" t="s">
         <v>10</v>
@@ -16207,7 +16207,7 @@
         <v>44</v>
       </c>
       <c r="D585">
-        <v>3903.8799726775901</v>
+        <v>3904</v>
       </c>
       <c r="E585" t="s">
         <v>10</v>
@@ -16233,7 +16233,7 @@
         <v>44</v>
       </c>
       <c r="D586">
-        <v>3605.9442076502701</v>
+        <v>3606</v>
       </c>
       <c r="E586" t="s">
         <v>10</v>
@@ -16259,7 +16259,7 @@
         <v>44</v>
       </c>
       <c r="D587">
-        <v>3727.78048269581</v>
+        <v>3728</v>
       </c>
       <c r="E587" t="s">
         <v>10</v>
@@ -16285,7 +16285,7 @@
         <v>44</v>
       </c>
       <c r="D588">
-        <v>3671.4695992714001</v>
+        <v>3671</v>
       </c>
       <c r="E588" t="s">
         <v>10</v>
@@ -16311,7 +16311,7 @@
         <v>44</v>
       </c>
       <c r="D589">
-        <v>3918.2136520947101</v>
+        <v>3918</v>
       </c>
       <c r="E589" t="s">
         <v>10</v>
@@ -16337,7 +16337,7 @@
         <v>44</v>
       </c>
       <c r="D590">
-        <v>3867.0219398907102</v>
+        <v>3867</v>
       </c>
       <c r="E590" t="s">
         <v>10</v>
@@ -16363,7 +16363,7 @@
         <v>44</v>
       </c>
       <c r="D591">
-        <v>3402.2011930783201</v>
+        <v>3402</v>
       </c>
       <c r="E591" t="s">
         <v>10</v>
@@ -16389,7 +16389,7 @@
         <v>44</v>
       </c>
       <c r="D592">
-        <v>2616.9203278688501</v>
+        <v>2617</v>
       </c>
       <c r="E592" t="s">
         <v>10</v>
@@ -16415,7 +16415,7 @@
         <v>44</v>
       </c>
       <c r="D593">
-        <v>1734.3752094717599</v>
+        <v>1734</v>
       </c>
       <c r="E593" t="s">
         <v>10</v>
@@ -16441,7 +16441,7 @@
         <v>44</v>
       </c>
       <c r="D594">
-        <v>954.21351548269502</v>
+        <v>954</v>
       </c>
       <c r="E594" t="s">
         <v>10</v>
@@ -16467,7 +16467,7 @@
         <v>44</v>
       </c>
       <c r="D595">
-        <v>745.35132969034601</v>
+        <v>745</v>
       </c>
       <c r="E595" t="s">
         <v>10</v>
@@ -16493,7 +16493,7 @@
         <v>9</v>
       </c>
       <c r="D596">
-        <v>3044.6624762434526</v>
+        <v>3045</v>
       </c>
       <c r="E596" t="s">
         <v>10</v>
@@ -16519,7 +16519,7 @@
         <v>9</v>
       </c>
       <c r="D597">
-        <v>3187.9644555694617</v>
+        <v>3188</v>
       </c>
       <c r="E597" t="s">
         <v>10</v>
@@ -16545,7 +16545,7 @@
         <v>9</v>
       </c>
       <c r="D598">
-        <v>3334.29394150095</v>
+        <v>3334</v>
       </c>
       <c r="E598" t="s">
         <v>10</v>
@@ -16571,7 +16571,7 @@
         <v>9</v>
       </c>
       <c r="D599">
-        <v>3503.8343114077784</v>
+        <v>3504</v>
       </c>
       <c r="E599" t="s">
         <v>10</v>
@@ -16597,7 +16597,7 @@
         <v>9</v>
       </c>
       <c r="D600">
-        <v>3391.8165670050525</v>
+        <v>3392</v>
       </c>
       <c r="E600" t="s">
         <v>10</v>
@@ -16623,7 +16623,7 @@
         <v>9</v>
       </c>
       <c r="D601">
-        <v>3547.2285727529784</v>
+        <v>3547</v>
       </c>
       <c r="E601" t="s">
         <v>10</v>
@@ -16649,7 +16649,7 @@
         <v>9</v>
       </c>
       <c r="D602">
-        <v>3449.3391925091551</v>
+        <v>3449</v>
       </c>
       <c r="E602" t="s">
         <v>10</v>
@@ -16675,7 +16675,7 @@
         <v>9</v>
       </c>
       <c r="D603">
-        <v>3501.8159736707917</v>
+        <v>3502</v>
       </c>
       <c r="E603" t="s">
         <v>10</v>
@@ -16701,7 +16701,7 @@
         <v>9</v>
       </c>
       <c r="D604">
-        <v>3327.2297594214992</v>
+        <v>3327</v>
       </c>
       <c r="E604" t="s">
         <v>10</v>
@@ -16727,7 +16727,7 @@
         <v>9</v>
       </c>
       <c r="D605">
-        <v>3257.5971074954805</v>
+        <v>3258</v>
       </c>
       <c r="E605" t="s">
         <v>10</v>
@@ -16753,7 +16753,7 @@
         <v>9</v>
       </c>
       <c r="D606">
-        <v>3494.7517915913409</v>
+        <v>3495</v>
       </c>
       <c r="E606" t="s">
         <v>10</v>
@@ -16779,7 +16779,7 @@
         <v>9</v>
       </c>
       <c r="D607">
-        <v>4099.243943818663</v>
+        <v>4099</v>
       </c>
       <c r="E607" t="s">
         <v>10</v>
@@ -16805,7 +16805,7 @@
         <v>9</v>
       </c>
       <c r="D608">
-        <v>4055.8496824734621</v>
+        <v>4056</v>
       </c>
       <c r="E608" t="s">
         <v>10</v>
@@ -16831,7 +16831,7 @@
         <v>9</v>
       </c>
       <c r="D609">
-        <v>3408.9724377694342</v>
+        <v>3409</v>
       </c>
       <c r="E609" t="s">
         <v>10</v>
@@ -16857,7 +16857,7 @@
         <v>9</v>
       </c>
       <c r="D610">
-        <v>2461.3628702544847</v>
+        <v>2461</v>
       </c>
       <c r="E610" t="s">
         <v>10</v>
@@ -16883,7 +16883,7 @@
         <v>9</v>
       </c>
       <c r="D611">
-        <v>1703.4770500162238</v>
+        <v>1703</v>
       </c>
       <c r="E611" t="s">
         <v>10</v>
@@ -16909,7 +16909,7 @@
         <v>9</v>
       </c>
       <c r="D612">
-        <v>1134.3058081861586</v>
+        <v>1134</v>
       </c>
       <c r="E612" t="s">
         <v>10</v>
@@ -16935,7 +16935,7 @@
         <v>9</v>
       </c>
       <c r="D613">
-        <v>1049.5356232327447</v>
+        <v>1050</v>
       </c>
       <c r="E613" t="s">
         <v>10</v>
@@ -16961,7 +16961,7 @@
         <v>9</v>
       </c>
       <c r="D614">
-        <v>94.659187781198199</v>
+        <v>95</v>
       </c>
       <c r="E614" t="s">
         <v>10</v>
@@ -16987,7 +16987,7 @@
         <v>9</v>
       </c>
       <c r="D615">
-        <v>96.067161970163383</v>
+        <v>96</v>
       </c>
       <c r="E615" t="s">
         <v>10</v>
@@ -17013,7 +17013,7 @@
         <v>9</v>
       </c>
       <c r="D616">
-        <v>110.1469038598153</v>
+        <v>110</v>
       </c>
       <c r="E616" t="s">
         <v>10</v>
@@ -17039,7 +17039,7 @@
         <v>9</v>
       </c>
       <c r="D617">
-        <v>101.37414160549372</v>
+        <v>101</v>
       </c>
       <c r="E617" t="s">
         <v>10</v>
@@ -17065,7 +17065,7 @@
         <v>9</v>
       </c>
       <c r="D618">
-        <v>105.48975846554582</v>
+        <v>105</v>
       </c>
       <c r="E618" t="s">
         <v>10</v>
@@ -17091,7 +17091,7 @@
         <v>9</v>
       </c>
       <c r="D619">
-        <v>137.54824769121478</v>
+        <v>138</v>
       </c>
       <c r="E619" t="s">
         <v>10</v>
@@ -17117,7 +17117,7 @@
         <v>9</v>
       </c>
       <c r="D620">
-        <v>139.71436182808429</v>
+        <v>140</v>
       </c>
       <c r="E620" t="s">
         <v>10</v>
@@ -17143,7 +17143,7 @@
         <v>9</v>
       </c>
       <c r="D621">
-        <v>130.40007103954537</v>
+        <v>130</v>
       </c>
       <c r="E621" t="s">
         <v>10</v>
@@ -17169,7 +17169,7 @@
         <v>9</v>
       </c>
       <c r="D622">
-        <v>128.12565119583235</v>
+        <v>128</v>
       </c>
       <c r="E622" t="s">
         <v>10</v>
@@ -17195,7 +17195,7 @@
         <v>9</v>
       </c>
       <c r="D623">
-        <v>127.15089983424106</v>
+        <v>127</v>
       </c>
       <c r="E623" t="s">
         <v>10</v>
@@ -17221,7 +17221,7 @@
         <v>9</v>
       </c>
       <c r="D624">
-        <v>126.28445417949325</v>
+        <v>126</v>
       </c>
       <c r="E624" t="s">
         <v>10</v>
@@ -17247,7 +17247,7 @@
         <v>9</v>
       </c>
       <c r="D625">
-        <v>144.15489580866682</v>
+        <v>144</v>
       </c>
       <c r="E625" t="s">
         <v>10</v>
@@ -17273,7 +17273,7 @@
         <v>9</v>
       </c>
       <c r="D626">
-        <v>147.62067842765808</v>
+        <v>148</v>
       </c>
       <c r="E626" t="s">
         <v>10</v>
@@ -17299,7 +17299,7 @@
         <v>9</v>
       </c>
       <c r="D627">
-        <v>115.77880061567608</v>
+        <v>116</v>
       </c>
       <c r="E627" t="s">
         <v>10</v>
@@ -17325,7 +17325,7 @@
         <v>9</v>
       </c>
       <c r="D628">
-        <v>97.150219038598152</v>
+        <v>97</v>
       </c>
       <c r="E628" t="s">
         <v>10</v>
@@ -17351,7 +17351,7 @@
         <v>9</v>
       </c>
       <c r="D629">
-        <v>61.084418659720583</v>
+        <v>61</v>
       </c>
       <c r="E629" t="s">
         <v>10</v>
@@ -17377,7 +17377,7 @@
         <v>9</v>
       </c>
       <c r="D630">
-        <v>39.964805825242721</v>
+        <v>40</v>
       </c>
       <c r="E630" t="s">
         <v>10</v>
@@ -17403,7 +17403,7 @@
         <v>9</v>
       </c>
       <c r="D631">
-        <v>38.2319145157471</v>
+        <v>38</v>
       </c>
       <c r="E631" t="s">
         <v>10</v>
@@ -17429,7 +17429,7 @@
         <v>9</v>
       </c>
       <c r="D632">
-        <v>8462.7515413412293</v>
+        <v>8463</v>
       </c>
       <c r="E632" t="s">
         <v>10</v>
@@ -17455,7 +17455,7 @@
         <v>9</v>
       </c>
       <c r="D633">
-        <v>9864.0973337815594</v>
+        <v>9864</v>
       </c>
       <c r="E633" t="s">
         <v>10</v>
@@ -17481,7 +17481,7 @@
         <v>9</v>
       </c>
       <c r="D634">
-        <v>10959.6581339408</v>
+        <v>10960</v>
       </c>
       <c r="E634" t="s">
         <v>10</v>
@@ -17507,7 +17507,7 @@
         <v>9</v>
       </c>
       <c r="D635">
-        <v>10968.770931724001</v>
+        <v>10969</v>
       </c>
       <c r="E635" t="s">
         <v>10</v>
@@ -17533,7 +17533,7 @@
         <v>9</v>
       </c>
       <c r="D636">
-        <v>9299.1038712225309</v>
+        <v>9299</v>
       </c>
       <c r="E636" t="s">
         <v>10</v>
@@ -17559,7 +17559,7 @@
         <v>9</v>
       </c>
       <c r="D637">
-        <v>9150.2615074300902</v>
+        <v>9150</v>
       </c>
       <c r="E637" t="s">
         <v>10</v>
@@ -17585,7 +17585,7 @@
         <v>9</v>
       </c>
       <c r="D638">
-        <v>9273.7905440469403</v>
+        <v>9274</v>
       </c>
       <c r="E638" t="s">
         <v>10</v>
@@ -17611,7 +17611,7 @@
         <v>9</v>
       </c>
       <c r="D639">
-        <v>9883.3354624349995</v>
+        <v>9883</v>
       </c>
       <c r="E639" t="s">
         <v>10</v>
@@ -17637,7 +17637,7 @@
         <v>9</v>
       </c>
       <c r="D640">
-        <v>9853.9720029113305</v>
+        <v>9854</v>
       </c>
       <c r="E640" t="s">
         <v>10</v>
@@ -17663,7 +17663,7 @@
         <v>9</v>
       </c>
       <c r="D641">
-        <v>10225.571645848901</v>
+        <v>10226</v>
       </c>
       <c r="E641" t="s">
         <v>10</v>
@@ -17689,7 +17689,7 @@
         <v>9</v>
       </c>
       <c r="D642">
-        <v>11441.6238833639</v>
+        <v>11442</v>
       </c>
       <c r="E642" t="s">
         <v>10</v>
@@ -17715,7 +17715,7 @@
         <v>9</v>
       </c>
       <c r="D643">
-        <v>12087.6199928848</v>
+        <v>12088</v>
       </c>
       <c r="E643" t="s">
         <v>10</v>
@@ -17741,7 +17741,7 @@
         <v>9</v>
       </c>
       <c r="D644">
-        <v>10708.549928359</v>
+        <v>10709</v>
       </c>
       <c r="E644" t="s">
         <v>10</v>
@@ -17767,7 +17767,7 @@
         <v>9</v>
       </c>
       <c r="D645">
-        <v>8155.9540159731496</v>
+        <v>8156</v>
       </c>
       <c r="E645" t="s">
         <v>10</v>
@@ -17793,7 +17793,7 @@
         <v>9</v>
       </c>
       <c r="D646">
-        <v>6079.2486544882404</v>
+        <v>6079</v>
       </c>
       <c r="E646" t="s">
         <v>10</v>
@@ -17819,7 +17819,7 @@
         <v>9</v>
       </c>
       <c r="D647">
-        <v>4077.47074144306</v>
+        <v>4077</v>
       </c>
       <c r="E647" t="s">
         <v>10</v>
@@ -17845,7 +17845,7 @@
         <v>9</v>
       </c>
       <c r="D648">
-        <v>2196.1842657536599</v>
+        <v>2196</v>
       </c>
       <c r="E648" t="s">
         <v>10</v>
@@ -17871,7 +17871,7 @@
         <v>9</v>
       </c>
       <c r="D649">
-        <v>1710.16838398245</v>
+        <v>1710</v>
       </c>
       <c r="E649" t="s">
         <v>10</v>
@@ -17897,7 +17897,7 @@
         <v>9</v>
       </c>
       <c r="D650">
-        <v>564.77945085902468</v>
+        <v>565</v>
       </c>
       <c r="E650" t="s">
         <v>10</v>
@@ -17923,7 +17923,7 @@
         <v>9</v>
       </c>
       <c r="D651">
-        <v>612.28050232115231</v>
+        <v>612</v>
       </c>
       <c r="E651" t="s">
         <v>10</v>
@@ -17949,7 +17949,7 @@
         <v>9</v>
       </c>
       <c r="D652">
-        <v>694.80351545450947</v>
+        <v>695</v>
       </c>
       <c r="E652" t="s">
         <v>10</v>
@@ -17975,7 +17975,7 @@
         <v>9</v>
       </c>
       <c r="D653">
-        <v>638.84888703725744</v>
+        <v>639</v>
       </c>
       <c r="E653" t="s">
         <v>10</v>
@@ -18001,7 +18001,7 @@
         <v>9</v>
       </c>
       <c r="D654">
-        <v>552.70291235170419</v>
+        <v>553</v>
       </c>
       <c r="E654" t="s">
         <v>10</v>
@@ -18027,7 +18027,7 @@
         <v>9</v>
       </c>
       <c r="D655">
-        <v>609.06009205253338</v>
+        <v>609</v>
       </c>
       <c r="E655" t="s">
         <v>10</v>
@@ -18053,7 +18053,7 @@
         <v>9</v>
       </c>
       <c r="D656">
-        <v>582.08915605285085</v>
+        <v>582</v>
       </c>
       <c r="E656" t="s">
         <v>10</v>
@@ -18079,7 +18079,7 @@
         <v>9</v>
       </c>
       <c r="D657">
-        <v>610.26774590326545</v>
+        <v>610</v>
       </c>
       <c r="E657" t="s">
         <v>10</v>
@@ -18105,7 +18105,7 @@
         <v>9</v>
       </c>
       <c r="D658">
-        <v>588.93252787366578</v>
+        <v>589</v>
       </c>
       <c r="E658" t="s">
         <v>10</v>
@@ -18131,7 +18131,7 @@
         <v>9</v>
       </c>
       <c r="D659">
-        <v>611.87795103757492</v>
+        <v>612</v>
       </c>
       <c r="E659" t="s">
         <v>10</v>
@@ -18157,7 +18157,7 @@
         <v>9</v>
       </c>
       <c r="D660">
-        <v>654.14583581319687</v>
+        <v>654</v>
       </c>
       <c r="E660" t="s">
         <v>10</v>
@@ -18183,7 +18183,7 @@
         <v>9</v>
       </c>
       <c r="D661">
-        <v>793.831131214538</v>
+        <v>794</v>
       </c>
       <c r="E661" t="s">
         <v>10</v>
@@ -18209,7 +18209,7 @@
         <v>9</v>
       </c>
       <c r="D662">
-        <v>714.52852834979967</v>
+        <v>715</v>
       </c>
       <c r="E662" t="s">
         <v>10</v>
@@ -18235,7 +18235,7 @@
         <v>9</v>
       </c>
       <c r="D663">
-        <v>602.61927151529585</v>
+        <v>603</v>
       </c>
       <c r="E663" t="s">
         <v>10</v>
@@ -18261,7 +18261,7 @@
         <v>9</v>
       </c>
       <c r="D664">
-        <v>473.80286077054319</v>
+        <v>474</v>
       </c>
       <c r="E664" t="s">
         <v>10</v>
@@ -18287,7 +18287,7 @@
         <v>9</v>
       </c>
       <c r="D665">
-        <v>356.2578859659564</v>
+        <v>356</v>
       </c>
       <c r="E665" t="s">
         <v>10</v>
@@ -18313,7 +18313,7 @@
         <v>9</v>
       </c>
       <c r="D666">
-        <v>223.01341110185294</v>
+        <v>223</v>
       </c>
       <c r="E666" t="s">
         <v>10</v>
@@ -18339,7 +18339,7 @@
         <v>9</v>
       </c>
       <c r="D667">
-        <v>172.69450065468396</v>
+        <v>173</v>
       </c>
       <c r="E667" t="s">
         <v>10</v>
@@ -18365,7 +18365,7 @@
         <v>44</v>
       </c>
       <c r="D668">
-        <v>4609.3528111051901</v>
+        <v>4609</v>
       </c>
       <c r="E668" t="s">
         <v>10</v>
@@ -18391,7 +18391,7 @@
         <v>44</v>
       </c>
       <c r="D669">
-        <v>5376.3961344744203</v>
+        <v>5376</v>
       </c>
       <c r="E669" t="s">
         <v>10</v>
@@ -18417,7 +18417,7 @@
         <v>44</v>
       </c>
       <c r="D670">
-        <v>5624.6466156177003</v>
+        <v>5625</v>
       </c>
       <c r="E670" t="s">
         <v>10</v>
@@ -18443,7 +18443,7 @@
         <v>44</v>
       </c>
       <c r="D671">
-        <v>6074.5372834855198</v>
+        <v>6075</v>
       </c>
       <c r="E671" t="s">
         <v>10</v>
@@ -18469,7 +18469,7 @@
         <v>44</v>
       </c>
       <c r="D672">
-        <v>5559.7975103394601</v>
+        <v>5560</v>
       </c>
       <c r="E672" t="s">
         <v>10</v>
@@ -18495,7 +18495,7 @@
         <v>44</v>
       </c>
       <c r="D673">
-        <v>5356.1307890749704</v>
+        <v>5356</v>
       </c>
       <c r="E673" t="s">
         <v>10</v>
@@ -18521,7 +18521,7 @@
         <v>44</v>
       </c>
       <c r="D674">
-        <v>5227.4458457884602</v>
+        <v>5227</v>
       </c>
       <c r="E674" t="s">
         <v>10</v>
@@ -18547,7 +18547,7 @@
         <v>44</v>
       </c>
       <c r="D675">
-        <v>5821.22046599238</v>
+        <v>5821</v>
       </c>
       <c r="E675" t="s">
         <v>10</v>
@@ -18573,7 +18573,7 @@
         <v>44</v>
       </c>
       <c r="D676">
-        <v>5638.8323573973203</v>
+        <v>5639</v>
       </c>
       <c r="E676" t="s">
         <v>10</v>
@@ -18599,7 +18599,7 @@
         <v>44</v>
       </c>
       <c r="D677">
-        <v>5585.1291920887697</v>
+        <v>5585</v>
       </c>
       <c r="E677" t="s">
         <v>10</v>
@@ -18625,7 +18625,7 @@
         <v>44</v>
       </c>
       <c r="D678">
-        <v>5368.2899963146401</v>
+        <v>5368</v>
       </c>
       <c r="E678" t="s">
         <v>10</v>
@@ -18651,7 +18651,7 @@
         <v>44</v>
       </c>
       <c r="D679">
-        <v>5650.99156463699</v>
+        <v>5651</v>
       </c>
       <c r="E679" t="s">
         <v>10</v>
@@ -18677,7 +18677,7 @@
         <v>44</v>
       </c>
       <c r="D680">
-        <v>5850.6052168215801</v>
+        <v>5851</v>
       </c>
       <c r="E680" t="s">
         <v>10</v>
@@ -18703,7 +18703,7 @@
         <v>44</v>
       </c>
       <c r="D681">
-        <v>5106.8670406617202</v>
+        <v>5107</v>
       </c>
       <c r="E681" t="s">
         <v>10</v>
@@ -18729,7 +18729,7 @@
         <v>44</v>
       </c>
       <c r="D682">
-        <v>3842.3094877359599</v>
+        <v>3842</v>
       </c>
       <c r="E682" t="s">
         <v>10</v>
@@ -18755,7 +18755,7 @@
         <v>44</v>
       </c>
       <c r="D683">
-        <v>2349.7667990663699</v>
+        <v>2350</v>
       </c>
       <c r="E683" t="s">
         <v>10</v>
@@ -18781,7 +18781,7 @@
         <v>44</v>
       </c>
       <c r="D684">
-        <v>1313.19438188444</v>
+        <v>1313</v>
       </c>
       <c r="E684" t="s">
         <v>10</v>
@@ -18807,7 +18807,7 @@
         <v>44</v>
       </c>
       <c r="D685">
-        <v>1083.18271160067</v>
+        <v>1083</v>
       </c>
       <c r="E685" t="s">
         <v>10</v>
@@ -18833,7 +18833,7 @@
         <v>49</v>
       </c>
       <c r="D686">
-        <v>6134.1355838801501</v>
+        <v>6134</v>
       </c>
       <c r="E686" t="s">
         <v>10</v>
@@ -18859,7 +18859,7 @@
         <v>49</v>
       </c>
       <c r="D687">
-        <v>6374.2547070649298</v>
+        <v>6374</v>
       </c>
       <c r="E687" t="s">
         <v>10</v>
@@ -18885,7 +18885,7 @@
         <v>49</v>
       </c>
       <c r="D688">
-        <v>6596.2135604290197</v>
+        <v>6596</v>
       </c>
       <c r="E688" t="s">
         <v>10</v>
@@ -18911,7 +18911,7 @@
         <v>49</v>
       </c>
       <c r="D689">
-        <v>6390.3971691277702</v>
+        <v>6390</v>
       </c>
       <c r="E689" t="s">
         <v>10</v>
@@ -18937,7 +18937,7 @@
         <v>49</v>
       </c>
       <c r="D690">
-        <v>6357.1033411231601</v>
+        <v>6357</v>
       </c>
       <c r="E690" t="s">
         <v>10</v>
@@ -18963,7 +18963,7 @@
         <v>49</v>
       </c>
       <c r="D691">
-        <v>6206.7766631629402</v>
+        <v>6207</v>
       </c>
       <c r="E691" t="s">
         <v>10</v>
@@ -18989,7 +18989,7 @@
         <v>49</v>
       </c>
       <c r="D692">
-        <v>5966.6575399781595</v>
+        <v>5967</v>
       </c>
       <c r="E692" t="s">
         <v>10</v>
@@ -19015,7 +19015,7 @@
         <v>49</v>
       </c>
       <c r="D693">
-        <v>6131.1088722433597</v>
+        <v>6131</v>
       </c>
       <c r="E693" t="s">
         <v>10</v>
@@ -19041,7 +19041,7 @@
         <v>49</v>
       </c>
       <c r="D694">
-        <v>5852.6514016593301</v>
+        <v>5853</v>
       </c>
       <c r="E694" t="s">
         <v>10</v>
@@ -19067,7 +19067,7 @@
         <v>49</v>
       </c>
       <c r="D695">
-        <v>5868.7938637221696</v>
+        <v>5869</v>
       </c>
       <c r="E695" t="s">
         <v>10</v>
@@ -19093,7 +19093,7 @@
         <v>49</v>
       </c>
       <c r="D696">
-        <v>6497.3409802940996</v>
+        <v>6497</v>
       </c>
       <c r="E696" t="s">
         <v>10</v>
@@ -19119,7 +19119,7 @@
         <v>49</v>
       </c>
       <c r="D697">
-        <v>7403.33666357114</v>
+        <v>7403</v>
       </c>
       <c r="E697" t="s">
         <v>10</v>
@@ -19145,7 +19145,7 @@
         <v>49</v>
       </c>
       <c r="D698">
-        <v>6815.1457021563201</v>
+        <v>6815</v>
       </c>
       <c r="E698" t="s">
         <v>10</v>
@@ -19171,7 +19171,7 @@
         <v>49</v>
       </c>
       <c r="D699">
-        <v>5500.5439479135803</v>
+        <v>5501</v>
       </c>
       <c r="E699" t="s">
         <v>10</v>
@@ -19197,7 +19197,7 @@
         <v>49</v>
       </c>
       <c r="D700">
-        <v>4216.2093100386701</v>
+        <v>4216</v>
       </c>
       <c r="E700" t="s">
         <v>10</v>
@@ -19223,7 +19223,7 @@
         <v>49</v>
       </c>
       <c r="D701">
-        <v>2631.22131624332</v>
+        <v>2631</v>
       </c>
       <c r="E701" t="s">
         <v>10</v>
@@ -19249,7 +19249,7 @@
         <v>49</v>
       </c>
       <c r="D702">
-        <v>1689.9139972038199</v>
+        <v>1690</v>
       </c>
       <c r="E702" t="s">
         <v>10</v>
@@ -19275,7 +19275,7 @@
         <v>49</v>
       </c>
       <c r="D703">
-        <v>1392.2873529201599</v>
+        <v>1392</v>
       </c>
       <c r="E703" t="s">
         <v>10</v>
@@ -19301,7 +19301,7 @@
         <v>49</v>
       </c>
       <c r="D704">
-        <v>2604.7439636762401</v>
+        <v>2605</v>
       </c>
       <c r="E704" t="s">
         <v>10</v>
@@ -19327,7 +19327,7 @@
         <v>49</v>
       </c>
       <c r="D705">
-        <v>2888.4695153625598</v>
+        <v>2888</v>
       </c>
       <c r="E705" t="s">
         <v>10</v>
@@ -19353,7 +19353,7 @@
         <v>49</v>
       </c>
       <c r="D706">
-        <v>3335.0555822767701</v>
+        <v>3335</v>
       </c>
       <c r="E706" t="s">
         <v>10</v>
@@ -19379,7 +19379,7 @@
         <v>49</v>
       </c>
       <c r="D707">
-        <v>4190.3293572156899</v>
+        <v>4190</v>
       </c>
       <c r="E707" t="s">
         <v>10</v>
@@ -19405,7 +19405,7 @@
         <v>49</v>
       </c>
       <c r="D708">
-        <v>4954.44221482578</v>
+        <v>4954</v>
       </c>
       <c r="E708" t="s">
         <v>10</v>
@@ -19431,7 +19431,7 @@
         <v>49</v>
       </c>
       <c r="D709">
-        <v>3060.5485503203299</v>
+        <v>3061</v>
       </c>
       <c r="E709" t="s">
         <v>10</v>
@@ -19457,7 +19457,7 @@
         <v>49</v>
       </c>
       <c r="D710">
-        <v>2788.0900783038601</v>
+        <v>2788</v>
       </c>
       <c r="E710" t="s">
         <v>10</v>
@@ -19483,7 +19483,7 @@
         <v>49</v>
       </c>
       <c r="D711">
-        <v>2938.6592338919099</v>
+        <v>2939</v>
       </c>
       <c r="E711" t="s">
         <v>10</v>
@@ -19509,7 +19509,7 @@
         <v>49</v>
       </c>
       <c r="D712">
-        <v>2936.61067395194</v>
+        <v>2937</v>
       </c>
       <c r="E712" t="s">
         <v>10</v>
@@ -19535,7 +19535,7 @@
         <v>49</v>
       </c>
       <c r="D713">
-        <v>2958.1205533216598</v>
+        <v>2958</v>
       </c>
       <c r="E713" t="s">
         <v>10</v>
@@ -19561,7 +19561,7 @@
         <v>49</v>
       </c>
       <c r="D714">
-        <v>3371.92966119629</v>
+        <v>3372</v>
       </c>
       <c r="E714" t="s">
         <v>10</v>
@@ -19587,7 +19587,7 @@
         <v>49</v>
       </c>
       <c r="D715">
-        <v>3902.50668564942</v>
+        <v>3903</v>
       </c>
       <c r="E715" t="s">
         <v>10</v>
@@ -19613,7 +19613,7 @@
         <v>49</v>
       </c>
       <c r="D716">
-        <v>3899.4338457394601</v>
+        <v>3899</v>
       </c>
       <c r="E716" t="s">
         <v>10</v>
@@ -19639,7 +19639,7 @@
         <v>49</v>
       </c>
       <c r="D717">
-        <v>3303.30290320718</v>
+        <v>3303</v>
       </c>
       <c r="E717" t="s">
         <v>10</v>
@@ -19665,7 +19665,7 @@
         <v>49</v>
       </c>
       <c r="D718">
-        <v>2589.37976412644</v>
+        <v>2589</v>
       </c>
       <c r="E718" t="s">
         <v>10</v>
@@ -19691,7 +19691,7 @@
         <v>49</v>
       </c>
       <c r="D719">
-        <v>1746.39734882736</v>
+        <v>1746</v>
       </c>
       <c r="E719" t="s">
         <v>10</v>
@@ -19717,7 +19717,7 @@
         <v>49</v>
       </c>
       <c r="D720">
-        <v>940.28901244781298</v>
+        <v>940</v>
       </c>
       <c r="E720" t="s">
         <v>10</v>
@@ -19743,7 +19743,7 @@
         <v>49</v>
       </c>
       <c r="D721">
-        <v>838.88529541912703</v>
+        <v>839</v>
       </c>
       <c r="E721" t="s">
         <v>10</v>
@@ -19769,7 +19769,7 @@
         <v>9</v>
       </c>
       <c r="D722">
-        <v>19951.756865936099</v>
+        <v>19952</v>
       </c>
       <c r="E722" t="s">
         <v>10</v>
@@ -19795,7 +19795,7 @@
         <v>9</v>
       </c>
       <c r="D723">
-        <v>22962.752016918599</v>
+        <v>22963</v>
       </c>
       <c r="E723" t="s">
         <v>10</v>
@@ -19821,7 +19821,7 @@
         <v>9</v>
       </c>
       <c r="D724">
-        <v>25889.912012741101</v>
+        <v>25890</v>
       </c>
       <c r="E724" t="s">
         <v>10</v>
@@ -19847,7 +19847,7 @@
         <v>9</v>
       </c>
       <c r="D725">
-        <v>26793.917601513102</v>
+        <v>26794</v>
       </c>
       <c r="E725" t="s">
         <v>10</v>
@@ -19873,7 +19873,7 @@
         <v>9</v>
       </c>
       <c r="D726">
-        <v>23081.939345940998</v>
+        <v>23082</v>
       </c>
       <c r="E726" t="s">
         <v>10</v>
@@ -19899,7 +19899,7 @@
         <v>9</v>
       </c>
       <c r="D727">
-        <v>21673.912764099499</v>
+        <v>21674</v>
       </c>
       <c r="E727" t="s">
         <v>10</v>
@@ -19925,7 +19925,7 @@
         <v>9</v>
       </c>
       <c r="D728">
-        <v>20845.661833604499</v>
+        <v>20846</v>
       </c>
       <c r="E728" t="s">
         <v>10</v>
@@ -19951,7 +19951,7 @@
         <v>9</v>
       </c>
       <c r="D729">
-        <v>22697.105681894001</v>
+        <v>22697</v>
       </c>
       <c r="E729" t="s">
         <v>10</v>
@@ -19977,7 +19977,7 @@
         <v>9</v>
       </c>
       <c r="D730">
-        <v>23280.921581681901</v>
+        <v>23281</v>
       </c>
       <c r="E730" t="s">
         <v>10</v>
@@ -20003,7 +20003,7 @@
         <v>9</v>
       </c>
       <c r="D731">
-        <v>24930.353007899401</v>
+        <v>24930</v>
       </c>
       <c r="E731" t="s">
         <v>10</v>
@@ -20029,7 +20029,7 @@
         <v>9</v>
       </c>
       <c r="D732">
-        <v>25070.7516412394</v>
+        <v>25071</v>
       </c>
       <c r="E732" t="s">
         <v>10</v>
@@ -20055,7 +20055,7 @@
         <v>9</v>
       </c>
       <c r="D733">
-        <v>24176.846673570999</v>
+        <v>24177</v>
       </c>
       <c r="E733" t="s">
         <v>10</v>
@@ -20081,7 +20081,7 @@
         <v>9</v>
       </c>
       <c r="D734">
-        <v>20489.109908647501</v>
+        <v>20489</v>
       </c>
       <c r="E734" t="s">
         <v>10</v>
@@ -20107,7 +20107,7 @@
         <v>9</v>
       </c>
       <c r="D735">
-        <v>15660.0029590176</v>
+        <v>15660</v>
       </c>
       <c r="E735" t="s">
         <v>10</v>
@@ -20133,7 +20133,7 @@
         <v>9</v>
       </c>
       <c r="D736">
-        <v>12098.5239578891</v>
+        <v>12099</v>
       </c>
       <c r="E736" t="s">
         <v>10</v>
@@ -20159,7 +20159,7 @@
         <v>9</v>
       </c>
       <c r="D737">
-        <v>7846.1624732745504</v>
+        <v>7846</v>
       </c>
       <c r="E737" t="s">
         <v>10</v>
@@ -20185,7 +20185,7 @@
         <v>9</v>
       </c>
       <c r="D738">
-        <v>4351.3475714298102</v>
+        <v>4351</v>
       </c>
       <c r="E738" t="s">
         <v>10</v>
@@ -20211,7 +20211,7 @@
         <v>9</v>
       </c>
       <c r="D739">
-        <v>3500.8752745069</v>
+        <v>3501</v>
       </c>
       <c r="E739" t="s">
         <v>10</v>
@@ -20237,7 +20237,7 @@
         <v>9</v>
       </c>
       <c r="D740">
-        <v>9166.8749534149902</v>
+        <v>9167</v>
       </c>
       <c r="E740" t="s">
         <v>10</v>
@@ -20263,7 +20263,7 @@
         <v>9</v>
       </c>
       <c r="D741">
-        <v>9310.6929009771302</v>
+        <v>9311</v>
       </c>
       <c r="E741" t="s">
         <v>10</v>
@@ -20289,7 +20289,7 @@
         <v>9</v>
       </c>
       <c r="D742">
-        <v>9617.5720426061998</v>
+        <v>9618</v>
       </c>
       <c r="E742" t="s">
         <v>10</v>
@@ -20315,7 +20315,7 @@
         <v>9</v>
       </c>
       <c r="D743">
-        <v>9232.7071125103303</v>
+        <v>9233</v>
       </c>
       <c r="E743" t="s">
         <v>10</v>
@@ -20341,7 +20341,7 @@
         <v>9</v>
       </c>
       <c r="D744">
-        <v>8533.8734236520504</v>
+        <v>8534</v>
       </c>
       <c r="E744" t="s">
         <v>10</v>
@@ -20367,7 +20367,7 @@
         <v>9</v>
       </c>
       <c r="D745">
-        <v>9270.1808030723005</v>
+        <v>9270</v>
       </c>
       <c r="E745" t="s">
         <v>10</v>
@@ -20393,7 +20393,7 @@
         <v>9</v>
       </c>
       <c r="D746">
-        <v>8542.9886456806307</v>
+        <v>8543</v>
       </c>
       <c r="E746" t="s">
         <v>10</v>
@@ -20419,7 +20419,7 @@
         <v>9</v>
       </c>
       <c r="D747">
-        <v>8294.8520460135605</v>
+        <v>8295</v>
       </c>
       <c r="E747" t="s">
         <v>10</v>
@@ -20445,7 +20445,7 @@
         <v>9</v>
       </c>
       <c r="D748">
-        <v>7930.2431648701104</v>
+        <v>7930</v>
       </c>
       <c r="E748" t="s">
         <v>10</v>
@@ -20471,7 +20471,7 @@
         <v>9</v>
       </c>
       <c r="D749">
-        <v>8451.8364253947693</v>
+        <v>8452</v>
       </c>
       <c r="E749" t="s">
         <v>10</v>
@@ -20497,7 +20497,7 @@
         <v>9</v>
       </c>
       <c r="D750">
-        <v>8697.9474201665998</v>
+        <v>8698</v>
       </c>
       <c r="E750" t="s">
         <v>10</v>
@@ -20523,7 +20523,7 @@
         <v>9</v>
       </c>
       <c r="D751">
-        <v>9664.1609551967504</v>
+        <v>9664</v>
       </c>
       <c r="E751" t="s">
         <v>10</v>
@@ -20549,7 +20549,7 @@
         <v>9</v>
       </c>
       <c r="D752">
-        <v>9192.1950146055096</v>
+        <v>9192</v>
       </c>
       <c r="E752" t="s">
         <v>10</v>
@@ -20575,7 +20575,7 @@
         <v>9</v>
       </c>
       <c r="D753">
-        <v>7882.64144983193</v>
+        <v>7883</v>
       </c>
       <c r="E753" t="s">
         <v>10</v>
@@ -20601,7 +20601,7 @@
         <v>9</v>
       </c>
       <c r="D754">
-        <v>6203.4149916768101</v>
+        <v>6203</v>
       </c>
       <c r="E754" t="s">
         <v>10</v>
@@ -20627,7 +20627,7 @@
         <v>9</v>
       </c>
       <c r="D755">
-        <v>4316.5640317594398</v>
+        <v>4317</v>
       </c>
       <c r="E755" t="s">
         <v>10</v>
@@ -20653,7 +20653,7 @@
         <v>9</v>
       </c>
       <c r="D756">
-        <v>2572.5182169565801</v>
+        <v>2573</v>
       </c>
       <c r="E756" t="s">
         <v>10</v>
@@ -20679,7 +20679,7 @@
         <v>9</v>
       </c>
       <c r="D757">
-        <v>2300.0743585466098</v>
+        <v>2300</v>
       </c>
       <c r="E757" t="s">
         <v>10</v>
@@ -20695,24 +20695,23 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H757"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -20919,26 +20918,26 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D62580A1-3225-4D4A-B704-2BD86AB2F8F8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{168E1EF0-EC4D-4126-BD65-5A8438E20188}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="29b2ff15-f619-4740-bc35-6887da9102a1"/>
+    <ds:schemaRef ds:uri="b87684af-bef0-40b7-97cd-63b35f783779"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{168E1EF0-EC4D-4126-BD65-5A8438E20188}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D62580A1-3225-4D4A-B704-2BD86AB2F8F8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="29b2ff15-f619-4740-bc35-6887da9102a1"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="b87684af-bef0-40b7-97cd-63b35f783779"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
